--- a/data/BondDeal/中票.xlsx
+++ b/data/BondDeal/中票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="392">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,49 +31,175 @@
     <t>year</t>
   </si>
   <si>
+    <t>0.81+10Y</t>
+  </si>
+  <si>
     <t>295D</t>
   </si>
   <si>
-    <t>306D</t>
-  </si>
-  <si>
-    <t>0.93Y+2Y</t>
-  </si>
-  <si>
-    <t>353D(休1)</t>
-  </si>
-  <si>
-    <t>1.06Y</t>
-  </si>
-  <si>
-    <t>1.18Y</t>
+    <t>301D+N</t>
+  </si>
+  <si>
+    <t>304D</t>
+  </si>
+  <si>
+    <t>305D(休2)</t>
+  </si>
+  <si>
+    <t>307D</t>
+  </si>
+  <si>
+    <t>308D+N</t>
+  </si>
+  <si>
+    <t>315D+N</t>
+  </si>
+  <si>
+    <t>322D</t>
+  </si>
+  <si>
+    <t>336D</t>
+  </si>
+  <si>
+    <t>1.02Y</t>
+  </si>
+  <si>
+    <t>1.05Y+2Y</t>
+  </si>
+  <si>
+    <t>1.05Y</t>
+  </si>
+  <si>
+    <t>1.13Y</t>
+  </si>
+  <si>
+    <t>1.18Y+2Y</t>
+  </si>
+  <si>
+    <t>1.2Y+N</t>
+  </si>
+  <si>
+    <t>1.22Y</t>
   </si>
   <si>
     <t>1.27Y</t>
   </si>
   <si>
-    <t>1.32Y+N</t>
+    <t>1.28Y</t>
+  </si>
+  <si>
+    <t>1.32Y</t>
+  </si>
+  <si>
+    <t>1.34Y</t>
+  </si>
+  <si>
+    <t>1.39Y</t>
   </si>
   <si>
     <t>1.41Y</t>
   </si>
   <si>
-    <t>1.47Y</t>
+    <t>1.43Y</t>
+  </si>
+  <si>
+    <t>1.45Y</t>
+  </si>
+  <si>
+    <t>1.46Y</t>
+  </si>
+  <si>
+    <t>1.49Y</t>
   </si>
   <si>
     <t>1.51Y</t>
   </si>
   <si>
-    <t>1.56Y+2Y</t>
+    <t>1.52Y</t>
+  </si>
+  <si>
+    <t>1.54Y</t>
+  </si>
+  <si>
+    <t>1.54Y+2Y</t>
+  </si>
+  <si>
+    <t>1.55Y</t>
+  </si>
+  <si>
+    <t>1.56Y</t>
+  </si>
+  <si>
+    <t>1.57Y</t>
+  </si>
+  <si>
+    <t>1.59Y+2Y</t>
+  </si>
+  <si>
+    <t>1.59Y+N</t>
+  </si>
+  <si>
+    <t>1.61Y</t>
+  </si>
+  <si>
+    <t>1.61Y+N</t>
   </si>
   <si>
     <t>1.62Y</t>
   </si>
   <si>
-    <t>1.68Y+N</t>
-  </si>
-  <si>
-    <t>1.77Y+2Y</t>
+    <t>1.66Y</t>
+  </si>
+  <si>
+    <t>1.66Y+N</t>
+  </si>
+  <si>
+    <t>1.67Y</t>
+  </si>
+  <si>
+    <t>1.7Y</t>
+  </si>
+  <si>
+    <t>1.72Y</t>
+  </si>
+  <si>
+    <t>1.76Y</t>
+  </si>
+  <si>
+    <t>1.78Y</t>
+  </si>
+  <si>
+    <t>1.8Y</t>
+  </si>
+  <si>
+    <t>1.82Y+N</t>
+  </si>
+  <si>
+    <t>1.86Y</t>
+  </si>
+  <si>
+    <t>1.93Y+N</t>
+  </si>
+  <si>
+    <t>2.01Y</t>
+  </si>
+  <si>
+    <t>2.02Y</t>
+  </si>
+  <si>
+    <t>2.03Y+N</t>
+  </si>
+  <si>
+    <t>2.03Y</t>
+  </si>
+  <si>
+    <t>2.08Y</t>
+  </si>
+  <si>
+    <t>2.12Y+NY</t>
+  </si>
+  <si>
+    <t>2.17Y</t>
   </si>
   <si>
     <t>2.18Y</t>
@@ -82,124 +208,475 @@
     <t>2.19Y</t>
   </si>
   <si>
+    <t>2.23Y</t>
+  </si>
+  <si>
     <t>2.24Y</t>
   </si>
   <si>
-    <t>2.28Y+N</t>
+    <t>2.26Y</t>
+  </si>
+  <si>
+    <t>2.27Y</t>
+  </si>
+  <si>
+    <t>2.27Y+N</t>
+  </si>
+  <si>
+    <t>2.28Y</t>
+  </si>
+  <si>
+    <t>2.29Y</t>
+  </si>
+  <si>
+    <t>2.3Y</t>
+  </si>
+  <si>
+    <t>2.31Y</t>
   </si>
   <si>
     <t>2.32Y</t>
   </si>
   <si>
-    <t>2.35Y</t>
-  </si>
-  <si>
-    <t>2.43Y</t>
-  </si>
-  <si>
-    <t>2.47Y</t>
-  </si>
-  <si>
-    <t>2.5Y+N</t>
+    <t>2.38Y</t>
+  </si>
+  <si>
+    <t>2.39Y</t>
+  </si>
+  <si>
+    <t>2.41Y</t>
+  </si>
+  <si>
+    <t>2.42Y</t>
+  </si>
+  <si>
+    <t>2.45Y</t>
+  </si>
+  <si>
+    <t>2.52Y</t>
+  </si>
+  <si>
+    <t>2.54Y</t>
   </si>
   <si>
     <t>2.58Y</t>
   </si>
   <si>
-    <t>2.64Y+2Y</t>
-  </si>
-  <si>
-    <t>2.65Y+N</t>
+    <t>2.6Y</t>
+  </si>
+  <si>
+    <t>2.61Y</t>
+  </si>
+  <si>
+    <t>2.62Y</t>
+  </si>
+  <si>
+    <t>2.63Y</t>
+  </si>
+  <si>
+    <t>2.67Y</t>
+  </si>
+  <si>
+    <t>2.7Y</t>
+  </si>
+  <si>
+    <t>2.70Y</t>
+  </si>
+  <si>
+    <t>2.72Y</t>
+  </si>
+  <si>
+    <t>2.73Y</t>
   </si>
   <si>
     <t>2.78Y</t>
   </si>
   <si>
-    <t>2.81Y+N</t>
-  </si>
-  <si>
-    <t>2.84Y+N</t>
-  </si>
-  <si>
-    <t>3.02Y</t>
-  </si>
-  <si>
-    <t>4.16Y</t>
-  </si>
-  <si>
-    <t>4.2Y</t>
+    <t>2.82Y</t>
+  </si>
+  <si>
+    <t>2.83Y</t>
+  </si>
+  <si>
+    <t>2.86Y</t>
+  </si>
+  <si>
+    <t>2.87Y+2Y</t>
+  </si>
+  <si>
+    <t>2.89Y+2Y</t>
+  </si>
+  <si>
+    <t>2.9Y</t>
+  </si>
+  <si>
+    <t>2.91Y</t>
+  </si>
+  <si>
+    <t>2.92Y+2Y</t>
+  </si>
+  <si>
+    <t>2.93Y+2Y</t>
+  </si>
+  <si>
+    <t>3.13Y</t>
+  </si>
+  <si>
+    <t>3.15Y</t>
+  </si>
+  <si>
+    <t>3.18Y</t>
+  </si>
+  <si>
+    <t>3.26Y</t>
+  </si>
+  <si>
+    <t>3.30Y+N</t>
+  </si>
+  <si>
+    <t>3.55Y</t>
+  </si>
+  <si>
+    <t>3.59Y+N</t>
+  </si>
+  <si>
+    <t>3.62Y</t>
+  </si>
+  <si>
+    <t>3.66Y</t>
+  </si>
+  <si>
+    <t>3.71Y</t>
+  </si>
+  <si>
+    <t>3.72Y</t>
+  </si>
+  <si>
+    <t>3.78Y</t>
+  </si>
+  <si>
+    <t>3.84Y</t>
+  </si>
+  <si>
+    <t>3.89Y</t>
+  </si>
+  <si>
+    <t>3.90Y</t>
+  </si>
+  <si>
+    <t>4.01Y</t>
+  </si>
+  <si>
+    <t>4.02Y</t>
+  </si>
+  <si>
+    <t>4.03Y</t>
+  </si>
+  <si>
+    <t>4.05Y</t>
+  </si>
+  <si>
+    <t>4.11Y</t>
+  </si>
+  <si>
+    <t>4.13Y</t>
+  </si>
+  <si>
+    <t>4.14Y</t>
+  </si>
+  <si>
+    <t>4.15Y</t>
+  </si>
+  <si>
+    <t>4.17Y</t>
+  </si>
+  <si>
+    <t>4.21Y</t>
+  </si>
+  <si>
+    <t>4.24Y</t>
+  </si>
+  <si>
+    <t>4.26Y</t>
   </si>
   <si>
     <t>4.28Y</t>
   </si>
   <si>
+    <t>4.29Y</t>
+  </si>
+  <si>
+    <t>4.3Y</t>
+  </si>
+  <si>
     <t>4.31Y</t>
   </si>
   <si>
-    <t>4.4Y</t>
-  </si>
-  <si>
-    <t>18铜陵有色MTN003</t>
-  </si>
-  <si>
-    <t>18鞍钢MTN001</t>
-  </si>
-  <si>
-    <t>18长电MTN001</t>
-  </si>
-  <si>
-    <t>18中银投资MTN001</t>
+    <t>4.46Y</t>
+  </si>
+  <si>
+    <t>4.85Y</t>
+  </si>
+  <si>
+    <t>4.95Y</t>
+  </si>
+  <si>
+    <t>16武汉地铁GN002</t>
+  </si>
+  <si>
+    <t>16兴城投资MTN001</t>
+  </si>
+  <si>
+    <t>16北控水务GN001</t>
+  </si>
+  <si>
+    <t>18中粮地产MTN003</t>
+  </si>
+  <si>
+    <t>14三峡MTN002</t>
+  </si>
+  <si>
+    <t>18汇金MTN014</t>
+  </si>
+  <si>
+    <t>18南昌城投MTN002</t>
+  </si>
+  <si>
+    <t>16绍兴城投MTN001</t>
+  </si>
+  <si>
+    <t>18豫高管MTN005</t>
+  </si>
+  <si>
+    <t>18朝阳国资MTN002</t>
+  </si>
+  <si>
+    <t>18平安租赁MTN001</t>
+  </si>
+  <si>
+    <t>16南京安居MTN001</t>
+  </si>
+  <si>
+    <t>18光大集团MTN002</t>
+  </si>
+  <si>
+    <t>19南电MTN001</t>
+  </si>
+  <si>
+    <t>19中油股MTN001</t>
   </si>
   <si>
     <t>19中电信MTN001</t>
   </si>
   <si>
-    <t>19格力MTN001</t>
-  </si>
-  <si>
-    <t>20金融城建GN001</t>
-  </si>
-  <si>
-    <t>19上饶投资MTN001</t>
-  </si>
-  <si>
-    <t>19闽西兴杭MTN001</t>
-  </si>
-  <si>
-    <t>12中船MTN1</t>
-  </si>
-  <si>
-    <t>19鲁钢铁MTN002</t>
+    <t>19深圳特发MTN001</t>
+  </si>
+  <si>
+    <t>19鞍钢集MTN001</t>
+  </si>
+  <si>
+    <t>19沪临港MTN001</t>
+  </si>
+  <si>
+    <t>17川铁投MTN001</t>
+  </si>
+  <si>
+    <t>19中化工MTN001</t>
+  </si>
+  <si>
+    <t>19甬交投MTN001</t>
+  </si>
+  <si>
+    <t>19高科技投MTN001</t>
+  </si>
+  <si>
+    <t>17中航工MTN001</t>
+  </si>
+  <si>
+    <t>19中建材MTN001</t>
+  </si>
+  <si>
+    <t>19川高速MTN001</t>
+  </si>
+  <si>
+    <t>15闽高速MTN001</t>
+  </si>
+  <si>
+    <t>15闽高速MTN002</t>
+  </si>
+  <si>
+    <t>19深圳水务MTN002</t>
+  </si>
+  <si>
+    <t>19汇金MTN011</t>
+  </si>
+  <si>
+    <t>19南电MTN005</t>
+  </si>
+  <si>
+    <t>19中石油MTN003</t>
+  </si>
+  <si>
+    <t>19中石油MTN004</t>
+  </si>
+  <si>
+    <t>19南方水泥MTN002</t>
+  </si>
+  <si>
+    <t>17华能MTN001</t>
+  </si>
+  <si>
+    <t>19西南水泥MTN002</t>
   </si>
   <si>
     <t>19绍兴交投MTN003</t>
   </si>
   <si>
-    <t>19吉利MTN002</t>
+    <t>19陆家嘴MTN001</t>
+  </si>
+  <si>
+    <t>19越秀集团MTN002</t>
+  </si>
+  <si>
+    <t>19亦庄控股MTN001</t>
+  </si>
+  <si>
+    <t>19鲁能源MTN001</t>
+  </si>
+  <si>
+    <t>19长电MTN002</t>
+  </si>
+  <si>
+    <t>19陕延油MTN007</t>
+  </si>
+  <si>
+    <t>19外高桥MTN003</t>
+  </si>
+  <si>
+    <t>19陕延油MTN009</t>
+  </si>
+  <si>
+    <t>19华润控股MTN004</t>
+  </si>
+  <si>
+    <t>17武汉地产MTN001</t>
   </si>
   <si>
     <t>19东航MTN001</t>
   </si>
   <si>
-    <t>20万达02</t>
-  </si>
-  <si>
-    <t>20南电MTN004</t>
-  </si>
-  <si>
-    <t>20南电MTN006</t>
+    <t>19中电国际MTN001</t>
+  </si>
+  <si>
+    <t>20无锡建投MTN001</t>
+  </si>
+  <si>
+    <t>19中化工MTN004</t>
+  </si>
+  <si>
+    <t>19汇金MTN015</t>
+  </si>
+  <si>
+    <t>19海运集装MTN002</t>
+  </si>
+  <si>
+    <t>19齐鲁交通MTN001</t>
+  </si>
+  <si>
+    <t>17鲁高速MTN003</t>
+  </si>
+  <si>
+    <t>19光明MTN001</t>
+  </si>
+  <si>
+    <t>19汇金MTN017</t>
+  </si>
+  <si>
+    <t>17建发地产MTN002</t>
+  </si>
+  <si>
+    <t>14宿产发MTN001</t>
+  </si>
+  <si>
+    <t>19华能集MTN005A</t>
+  </si>
+  <si>
+    <t>20粤珠江MTN001</t>
+  </si>
+  <si>
+    <t>20汇金MTN001</t>
+  </si>
+  <si>
+    <t>20华电股MTN001A</t>
+  </si>
+  <si>
+    <t>20中建材MTN001</t>
+  </si>
+  <si>
+    <t>20宁夏国资MTN001</t>
+  </si>
+  <si>
+    <t>19河钢集MTN002B</t>
+  </si>
+  <si>
+    <t>18鄂联投MTN002</t>
+  </si>
+  <si>
+    <t>20蓝星MTN001</t>
+  </si>
+  <si>
+    <t>20天成租赁GN001</t>
   </si>
   <si>
     <t>18常城建MTN003</t>
   </si>
   <si>
+    <t>20中石化MTN001</t>
+  </si>
+  <si>
+    <t>20中油股MTN002</t>
+  </si>
+  <si>
+    <t>20首农食品MTN002</t>
+  </si>
+  <si>
+    <t>20苏国信MTN005</t>
+  </si>
+  <si>
+    <t>20国网新源MTN001</t>
+  </si>
+  <si>
+    <t>20中电投MTN006</t>
+  </si>
+  <si>
     <t>20华侨城MTN002</t>
   </si>
   <si>
-    <t>20南航股MTN009</t>
-  </si>
-  <si>
-    <t>20正泰MTN001</t>
+    <t>18广州地铁MTN002</t>
+  </si>
+  <si>
+    <t>20汇金MTN005</t>
+  </si>
+  <si>
+    <t>18苏国信MTN002B</t>
+  </si>
+  <si>
+    <t>20蓝星MTN003</t>
+  </si>
+  <si>
+    <t>20中石油MTN005</t>
+  </si>
+  <si>
+    <t>18九龙江MTN001</t>
+  </si>
+  <si>
+    <t>20宝武集团MTN001</t>
+  </si>
+  <si>
+    <t>20中石化MTN003</t>
+  </si>
+  <si>
+    <t>20红狮MTN001</t>
   </si>
   <si>
     <t>18新盛建设MTN003</t>
@@ -208,157 +685,511 @@
     <t>20汇金MTN008A</t>
   </si>
   <si>
-    <t>20中交天津MTN001</t>
-  </si>
-  <si>
-    <t>18萧山国资MTN002</t>
-  </si>
-  <si>
-    <t>20诚通控股MTN001A</t>
-  </si>
-  <si>
-    <t>20京能电力MTN001</t>
-  </si>
-  <si>
-    <t>18冀港集MTN002</t>
-  </si>
-  <si>
-    <t>20华侨城MTN005</t>
-  </si>
-  <si>
-    <t>20华发集团MTN004</t>
-  </si>
-  <si>
-    <t>20华侨城MTN006</t>
-  </si>
-  <si>
-    <t>19中石油MTN001</t>
+    <t>18九龙江MTN003</t>
+  </si>
+  <si>
+    <t>20北京国资MTN002</t>
+  </si>
+  <si>
+    <t>18上饶投资MTN001</t>
+  </si>
+  <si>
+    <t>18金隅MTN003</t>
+  </si>
+  <si>
+    <t>18中建MTN002</t>
+  </si>
+  <si>
+    <t>20汇金MTN009A</t>
+  </si>
+  <si>
+    <t>20招商蛇口MTN002A</t>
+  </si>
+  <si>
+    <t>18鲁能源MTN001</t>
+  </si>
+  <si>
+    <t>18陕煤化MTN003</t>
+  </si>
+  <si>
+    <t>20广晟MTN004</t>
+  </si>
+  <si>
+    <t>20苏交通MTN005</t>
+  </si>
+  <si>
+    <t>20赣高速MTN003</t>
+  </si>
+  <si>
+    <t>20华发实业MTN003</t>
+  </si>
+  <si>
+    <t>20豫交运MTN006</t>
+  </si>
+  <si>
+    <t>20赣铁投MTN002</t>
+  </si>
+  <si>
+    <t>20汇金MTN010A</t>
+  </si>
+  <si>
+    <t>20中化工MTN011</t>
+  </si>
+  <si>
+    <t>18无锡建投MTN003</t>
+  </si>
+  <si>
+    <t>20金融街MTN002</t>
+  </si>
+  <si>
+    <t>20广州城投MTN001</t>
+  </si>
+  <si>
+    <t>18京汽集MTN003</t>
+  </si>
+  <si>
+    <t>18三峡GN001</t>
+  </si>
+  <si>
+    <t>20湘高速MTN007</t>
+  </si>
+  <si>
+    <t>20青岛城投MTN004</t>
+  </si>
+  <si>
+    <t>20金融街MTN003</t>
+  </si>
+  <si>
+    <t>19中油股MTN004</t>
+  </si>
+  <si>
+    <t>19苏国资MTN002</t>
+  </si>
+  <si>
+    <t>19金隅MTN001</t>
+  </si>
+  <si>
+    <t>19洪市政MTN001</t>
+  </si>
+  <si>
+    <t>19乌城投MTN002</t>
+  </si>
+  <si>
+    <t>19国新控股MTN003</t>
+  </si>
+  <si>
+    <t>19济南轨交MTN001</t>
+  </si>
+  <si>
+    <t>19陕煤化MTN003</t>
+  </si>
+  <si>
+    <t>19甘交建MTN002</t>
+  </si>
+  <si>
+    <t>19陕煤化MTN004</t>
+  </si>
+  <si>
+    <t>19兆润投资MTN001</t>
+  </si>
+  <si>
+    <t>19豫交投MTN001</t>
+  </si>
+  <si>
+    <t>19南电MTN008</t>
+  </si>
+  <si>
+    <t>19西基投MTN001</t>
+  </si>
+  <si>
+    <t>19中石油MTN006</t>
+  </si>
+  <si>
+    <t>19南京国投MTN001</t>
+  </si>
+  <si>
+    <t>19大横琴MTN001</t>
+  </si>
+  <si>
+    <t>20杭金投MTN001</t>
+  </si>
+  <si>
+    <t>20汇金MTN002</t>
+  </si>
+  <si>
+    <t>20陕煤化MTN001</t>
+  </si>
+  <si>
+    <t>20青岛国信MTN001</t>
+  </si>
+  <si>
+    <t>20朝阳国资MTN001</t>
+  </si>
+  <si>
+    <t>20闽投MTN002</t>
+  </si>
+  <si>
+    <t>20紫金矿业MTN001</t>
+  </si>
+  <si>
+    <t>20青岛国信MTN002</t>
   </si>
   <si>
     <t>20南京地铁GN001</t>
   </si>
   <si>
-    <t>20汇金MTN004</t>
-  </si>
-  <si>
-    <t>20天津轨交MTN001</t>
-  </si>
-  <si>
-    <t>20汇金MTN006</t>
-  </si>
-  <si>
-    <t>20南电MTN008</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>3.10</t>
+    <t>20京国资MTN001</t>
+  </si>
+  <si>
+    <t>20南电MTN005</t>
+  </si>
+  <si>
+    <t>20中石油MTN003</t>
+  </si>
+  <si>
+    <t>20中石油MTN002</t>
+  </si>
+  <si>
+    <t>20青岛国信MTN004</t>
+  </si>
+  <si>
+    <t>20鄂联投MTN003</t>
+  </si>
+  <si>
+    <t>20青岛城投MTN003</t>
+  </si>
+  <si>
+    <t>20浙能源MTN002</t>
+  </si>
+  <si>
+    <t>20南电MTN007</t>
+  </si>
+  <si>
+    <t>20陕投集团MTN003</t>
+  </si>
+  <si>
+    <t>20北京国资MTN001</t>
+  </si>
+  <si>
+    <t>20深能源MTN002</t>
+  </si>
+  <si>
+    <t>20川铁投MTN008</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.4</t>
   </si>
   <si>
     <t>3.25</t>
   </si>
   <si>
-    <t>3.11</t>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.10行权</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.27行权</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.99</t>
   </si>
   <si>
     <t>3.34</t>
   </si>
   <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>4.02</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>6.60行权</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>5.6</t>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.835</t>
+  </si>
+  <si>
+    <t>3.825</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>3.71</t>
   </si>
   <si>
     <t>3.66</t>
   </si>
   <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>4.26</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3.85行权</t>
+  </si>
+  <si>
+    <t>3.74行权</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.555</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.635</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>3.605</t>
   </si>
   <si>
     <t>3.61</t>
   </si>
   <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.42</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>4.27</t>
+  </si>
+  <si>
     <t>AAA</t>
   </si>
   <si>
-    <t>AA/AAA</t>
-  </si>
-  <si>
-    <t>AA+/AAA</t>
+    <t>AAA/AA+</t>
   </si>
 </sst>
 </file>
@@ -716,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,16 +1578,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F2">
-        <v>0.8082191780821918</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -764,19 +1595,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F3">
-        <v>0.8383561643835616</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -784,19 +1615,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F4">
-        <v>0.9301369863013699</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -804,19 +1635,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F5">
-        <v>0.9671232876712329</v>
+        <v>0.8082191780821918</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -824,19 +1655,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>0.8246575342465754</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -844,19 +1675,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F7">
-        <v>1.18</v>
+        <v>0.8328767123287671</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -864,19 +1695,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="F8">
-        <v>1.27013698630137</v>
+        <v>0.8356164383561644</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -884,19 +1715,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F9">
-        <v>1.32</v>
+        <v>0.8410958904109589</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -904,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F10">
-        <v>1.40986301369863</v>
+        <v>0.8438356164383561</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -924,19 +1755,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="F11">
-        <v>1.46986301369863</v>
+        <v>0.863013698630137</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -944,19 +1775,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F12">
-        <v>1.50986301369863</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -964,19 +1795,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F13">
-        <v>1.56</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -984,19 +1815,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F14">
-        <v>1.62</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1004,19 +1835,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F15">
-        <v>1.68</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1024,19 +1855,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F16">
-        <v>1.76986301369863</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1044,19 +1875,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F17">
-        <v>2.18</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1064,19 +1895,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F18">
-        <v>2.18</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1084,19 +1915,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>301</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F19">
-        <v>2.19013698630137</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1104,19 +1935,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F20">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1124,19 +1955,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F21">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1144,19 +1975,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F22">
-        <v>2.28</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1164,19 +1995,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F23">
-        <v>2.32</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1184,19 +2015,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>390</v>
       </c>
       <c r="F24">
-        <v>2.35013698630137</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1204,19 +2035,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F25">
-        <v>2.43013698630137</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1224,19 +2055,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F26">
-        <v>2.47013698630137</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1244,19 +2075,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>390</v>
       </c>
       <c r="F27">
-        <v>2.5</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1264,19 +2095,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>306</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F28">
-        <v>2.58</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1284,19 +2115,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F29">
-        <v>2.58</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1304,19 +2135,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F30">
-        <v>2.64</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1324,19 +2155,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F31">
-        <v>2.64986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1344,19 +2175,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F32">
-        <v>2.78</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1364,19 +2195,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F33">
-        <v>2.81013698630137</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1384,19 +2215,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F34">
-        <v>2.81013698630137</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1404,19 +2235,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F35">
-        <v>2.84</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1424,19 +2255,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F36">
-        <v>2.84</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1444,19 +2275,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F37">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1464,19 +2295,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F38">
-        <v>3.02</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1484,19 +2315,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F39">
-        <v>3.02</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1504,19 +2335,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F40">
-        <v>4.16</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1524,19 +2355,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F41">
-        <v>4.2</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1544,19 +2375,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F42">
-        <v>4.28</v>
+        <v>1.40986301369863</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1564,19 +2395,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="F43">
-        <v>4.30986301369863</v>
+        <v>1.42986301369863</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1584,19 +2415,4179 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44">
+        <v>1.44986301369863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45">
+        <v>1.44986301369863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E47" t="s">
+        <v>390</v>
+      </c>
+      <c r="F47">
+        <v>1.49013698630137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>390</v>
+      </c>
+      <c r="F48">
+        <v>1.50986301369863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" t="s">
+        <v>390</v>
+      </c>
+      <c r="F49">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" t="s">
+        <v>390</v>
+      </c>
+      <c r="F50">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>317</v>
+      </c>
+      <c r="E51" t="s">
+        <v>390</v>
+      </c>
+      <c r="F51">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52" t="s">
+        <v>390</v>
+      </c>
+      <c r="F52">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" t="s">
+        <v>390</v>
+      </c>
+      <c r="F53">
+        <v>1.55013698630137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" t="s">
+        <v>390</v>
+      </c>
+      <c r="F54">
+        <v>1.55013698630137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" t="s">
+        <v>390</v>
+      </c>
+      <c r="F55">
+        <v>1.55013698630137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" t="s">
+        <v>390</v>
+      </c>
+      <c r="F56">
+        <v>1.55013698630137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E57" t="s">
+        <v>390</v>
+      </c>
+      <c r="F57">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" t="s">
+        <v>390</v>
+      </c>
+      <c r="F58">
+        <v>1.57013698630137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" t="s">
+        <v>390</v>
+      </c>
+      <c r="F59">
+        <v>1.59013698630137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" t="s">
+        <v>390</v>
+      </c>
+      <c r="F60">
+        <v>1.59013698630137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" t="s">
+        <v>390</v>
+      </c>
+      <c r="F61">
+        <v>1.59013698630137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" t="s">
+        <v>390</v>
+      </c>
+      <c r="F62">
+        <v>1.59013698630137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>323</v>
+      </c>
+      <c r="E63" t="s">
+        <v>390</v>
+      </c>
+      <c r="F63">
+        <v>1.59013698630137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64" t="s">
+        <v>390</v>
+      </c>
+      <c r="F64">
+        <v>1.61013698630137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" t="s">
+        <v>390</v>
+      </c>
+      <c r="F65">
+        <v>1.61013698630137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>325</v>
+      </c>
+      <c r="E66" t="s">
+        <v>390</v>
+      </c>
+      <c r="F66">
+        <v>1.61013698630137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E67" t="s">
+        <v>390</v>
+      </c>
+      <c r="F67">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" t="s">
+        <v>390</v>
+      </c>
+      <c r="F68">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" t="s">
+        <v>390</v>
+      </c>
+      <c r="F69">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70">
+        <v>1.66986301369863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" t="s">
+        <v>390</v>
+      </c>
+      <c r="F71">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" t="s">
+        <v>390</v>
+      </c>
+      <c r="F72">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" t="s">
+        <v>390</v>
+      </c>
+      <c r="F73">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" t="s">
+        <v>390</v>
+      </c>
+      <c r="F75">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" t="s">
+        <v>390</v>
+      </c>
+      <c r="F76">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" t="s">
+        <v>390</v>
+      </c>
+      <c r="F77">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>318</v>
+      </c>
+      <c r="E78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" t="s">
+        <v>390</v>
+      </c>
+      <c r="F79">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" t="s">
+        <v>390</v>
+      </c>
+      <c r="F80">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" t="s">
+        <v>334</v>
+      </c>
+      <c r="E81" t="s">
+        <v>390</v>
+      </c>
+      <c r="F81">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" t="s">
+        <v>335</v>
+      </c>
+      <c r="E82" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" t="s">
+        <v>336</v>
+      </c>
+      <c r="E83" t="s">
+        <v>390</v>
+      </c>
+      <c r="F83">
+        <v>1.92986301369863</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" t="s">
+        <v>390</v>
+      </c>
+      <c r="F84">
+        <v>1.92986301369863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
+        <v>337</v>
+      </c>
+      <c r="E85" t="s">
+        <v>390</v>
+      </c>
+      <c r="F85">
+        <v>2.00986301369863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>339</v>
+      </c>
+      <c r="E87" t="s">
+        <v>390</v>
+      </c>
+      <c r="F87">
+        <v>2.02986301369863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" t="s">
+        <v>339</v>
+      </c>
+      <c r="E88" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88">
+        <v>2.02986301369863</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" t="s">
+        <v>339</v>
+      </c>
+      <c r="E89" t="s">
+        <v>390</v>
+      </c>
+      <c r="F89">
+        <v>2.02986301369863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" t="s">
+        <v>390</v>
+      </c>
+      <c r="F90">
+        <v>2.02986301369863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" t="s">
+        <v>341</v>
+      </c>
+      <c r="E91" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" t="s">
+        <v>342</v>
+      </c>
+      <c r="E92" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
+        <v>343</v>
+      </c>
+      <c r="E93" t="s">
+        <v>390</v>
+      </c>
+      <c r="F93">
+        <v>2.16986301369863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" t="s">
+        <v>343</v>
+      </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94">
+        <v>2.16986301369863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" t="s">
+        <v>344</v>
+      </c>
+      <c r="E95" t="s">
+        <v>390</v>
+      </c>
+      <c r="F95">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" t="s">
+        <v>344</v>
+      </c>
+      <c r="E96" t="s">
+        <v>390</v>
+      </c>
+      <c r="F96">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>344</v>
+      </c>
+      <c r="E97" t="s">
+        <v>390</v>
+      </c>
+      <c r="F97">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>344</v>
+      </c>
+      <c r="E98" t="s">
+        <v>390</v>
+      </c>
+      <c r="F98">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>345</v>
+      </c>
+      <c r="E99" t="s">
+        <v>390</v>
+      </c>
+      <c r="F99">
+        <v>2.19013698630137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>336</v>
+      </c>
+      <c r="E100" t="s">
+        <v>390</v>
+      </c>
+      <c r="F100">
+        <v>2.23013698630137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>336</v>
+      </c>
+      <c r="E101" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101">
+        <v>2.23013698630137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" t="s">
+        <v>326</v>
+      </c>
+      <c r="E102" t="s">
+        <v>390</v>
+      </c>
+      <c r="F102">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="D103" t="s">
+        <v>326</v>
+      </c>
+      <c r="E103" t="s">
+        <v>390</v>
+      </c>
+      <c r="F103">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" t="s">
+        <v>311</v>
+      </c>
+      <c r="E104" t="s">
+        <v>390</v>
+      </c>
+      <c r="F104">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>346</v>
+      </c>
+      <c r="E105" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
+      </c>
+      <c r="E106" t="s">
+        <v>390</v>
+      </c>
+      <c r="F106">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" t="s">
+        <v>347</v>
+      </c>
+      <c r="E107" t="s">
+        <v>390</v>
+      </c>
+      <c r="F107">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>347</v>
+      </c>
+      <c r="E108" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>320</v>
+      </c>
+      <c r="E109" t="s">
+        <v>390</v>
+      </c>
+      <c r="F109">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" t="s">
+        <v>346</v>
+      </c>
+      <c r="E110" t="s">
+        <v>390</v>
+      </c>
+      <c r="F110">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" t="s">
+        <v>348</v>
+      </c>
+      <c r="E111" t="s">
+        <v>390</v>
+      </c>
+      <c r="F111">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" t="s">
+        <v>346</v>
+      </c>
+      <c r="E112" t="s">
+        <v>390</v>
+      </c>
+      <c r="F112">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="E44" t="s">
+      <c r="B113" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" t="s">
+        <v>346</v>
+      </c>
+      <c r="E113" t="s">
+        <v>390</v>
+      </c>
+      <c r="F113">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="F44">
-        <v>4.4</v>
+      <c r="B114" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" t="s">
+        <v>298</v>
+      </c>
+      <c r="E114" t="s">
+        <v>390</v>
+      </c>
+      <c r="F114">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
+        <v>390</v>
+      </c>
+      <c r="F115">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>212</v>
+      </c>
+      <c r="D116" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" t="s">
+        <v>390</v>
+      </c>
+      <c r="F116">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" t="s">
+        <v>326</v>
+      </c>
+      <c r="E117" t="s">
+        <v>390</v>
+      </c>
+      <c r="F117">
+        <v>2.29013698630137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" t="s">
+        <v>326</v>
+      </c>
+      <c r="E118" t="s">
+        <v>390</v>
+      </c>
+      <c r="F118">
+        <v>2.29013698630137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" t="s">
+        <v>346</v>
+      </c>
+      <c r="E119" t="s">
+        <v>390</v>
+      </c>
+      <c r="F119">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120">
+        <v>2.30986301369863</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" t="s">
+        <v>349</v>
+      </c>
+      <c r="E121" t="s">
+        <v>390</v>
+      </c>
+      <c r="F121">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122" t="s">
+        <v>350</v>
+      </c>
+      <c r="E122" t="s">
+        <v>390</v>
+      </c>
+      <c r="F122">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C123" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" t="s">
+        <v>350</v>
+      </c>
+      <c r="E123" t="s">
+        <v>390</v>
+      </c>
+      <c r="F123">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+      <c r="C124" t="s">
+        <v>216</v>
+      </c>
+      <c r="D124" t="s">
+        <v>350</v>
+      </c>
+      <c r="E124" t="s">
+        <v>390</v>
+      </c>
+      <c r="F124">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>349</v>
+      </c>
+      <c r="E125" t="s">
+        <v>390</v>
+      </c>
+      <c r="F125">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" t="s">
+        <v>390</v>
+      </c>
+      <c r="F126">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" t="s">
+        <v>351</v>
+      </c>
+      <c r="E127" t="s">
+        <v>390</v>
+      </c>
+      <c r="F127">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" t="s">
+        <v>349</v>
+      </c>
+      <c r="E128" t="s">
+        <v>390</v>
+      </c>
+      <c r="F128">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>216</v>
+      </c>
+      <c r="D129" t="s">
+        <v>349</v>
+      </c>
+      <c r="E129" t="s">
+        <v>390</v>
+      </c>
+      <c r="F129">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" t="s">
+        <v>340</v>
+      </c>
+      <c r="E130" t="s">
+        <v>390</v>
+      </c>
+      <c r="F130">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" t="s">
+        <v>218</v>
+      </c>
+      <c r="D131" t="s">
+        <v>340</v>
+      </c>
+      <c r="E131" t="s">
+        <v>390</v>
+      </c>
+      <c r="F131">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" t="s">
+        <v>340</v>
+      </c>
+      <c r="E132" t="s">
+        <v>390</v>
+      </c>
+      <c r="F132">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>218</v>
+      </c>
+      <c r="D133" t="s">
+        <v>340</v>
+      </c>
+      <c r="E133" t="s">
+        <v>390</v>
+      </c>
+      <c r="F133">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" t="s">
+        <v>218</v>
+      </c>
+      <c r="D134" t="s">
+        <v>340</v>
+      </c>
+      <c r="E134" t="s">
+        <v>390</v>
+      </c>
+      <c r="F134">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" t="s">
+        <v>349</v>
+      </c>
+      <c r="E135" t="s">
+        <v>390</v>
+      </c>
+      <c r="F135">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>75</v>
+      </c>
+      <c r="C136" t="s">
+        <v>219</v>
+      </c>
+      <c r="D136" t="s">
+        <v>349</v>
+      </c>
+      <c r="E136" t="s">
+        <v>390</v>
+      </c>
+      <c r="F136">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" t="s">
+        <v>352</v>
+      </c>
+      <c r="E137" t="s">
+        <v>390</v>
+      </c>
+      <c r="F137">
+        <v>2.41013698630137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" t="s">
+        <v>221</v>
+      </c>
+      <c r="D138" t="s">
+        <v>339</v>
+      </c>
+      <c r="E138" t="s">
+        <v>390</v>
+      </c>
+      <c r="F138">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" t="s">
+        <v>221</v>
+      </c>
+      <c r="D139" t="s">
+        <v>339</v>
+      </c>
+      <c r="E139" t="s">
+        <v>390</v>
+      </c>
+      <c r="F139">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" t="s">
+        <v>324</v>
+      </c>
+      <c r="E140" t="s">
+        <v>390</v>
+      </c>
+      <c r="F140">
+        <v>2.45013698630137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" t="s">
+        <v>350</v>
+      </c>
+      <c r="E141" t="s">
+        <v>390</v>
+      </c>
+      <c r="F141">
+        <v>2.45013698630137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>222</v>
+      </c>
+      <c r="D142" t="s">
+        <v>350</v>
+      </c>
+      <c r="E142" t="s">
+        <v>390</v>
+      </c>
+      <c r="F142">
+        <v>2.45013698630137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>78</v>
+      </c>
+      <c r="C143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" t="s">
+        <v>350</v>
+      </c>
+      <c r="E143" t="s">
+        <v>390</v>
+      </c>
+      <c r="F143">
+        <v>2.45013698630137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" t="s">
+        <v>339</v>
+      </c>
+      <c r="E144" t="s">
+        <v>390</v>
+      </c>
+      <c r="F144">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" t="s">
+        <v>390</v>
+      </c>
+      <c r="F145">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" t="s">
+        <v>353</v>
+      </c>
+      <c r="E146" t="s">
+        <v>390</v>
+      </c>
+      <c r="F146">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" t="s">
+        <v>354</v>
+      </c>
+      <c r="E147" t="s">
+        <v>390</v>
+      </c>
+      <c r="F147">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>224</v>
+      </c>
+      <c r="D148" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" t="s">
+        <v>390</v>
+      </c>
+      <c r="F148">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>81</v>
+      </c>
+      <c r="C149" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" t="s">
+        <v>294</v>
+      </c>
+      <c r="E149" t="s">
+        <v>391</v>
+      </c>
+      <c r="F149">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" t="s">
+        <v>294</v>
+      </c>
+      <c r="E150" t="s">
+        <v>391</v>
+      </c>
+      <c r="F150">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" t="s">
+        <v>294</v>
+      </c>
+      <c r="E151" t="s">
+        <v>390</v>
+      </c>
+      <c r="F151">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152" t="s">
+        <v>226</v>
+      </c>
+      <c r="D152" t="s">
+        <v>355</v>
+      </c>
+      <c r="E152" t="s">
+        <v>390</v>
+      </c>
+      <c r="F152">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" t="s">
+        <v>226</v>
+      </c>
+      <c r="D153" t="s">
+        <v>356</v>
+      </c>
+      <c r="E153" t="s">
+        <v>390</v>
+      </c>
+      <c r="F153">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>355</v>
+      </c>
+      <c r="E154" t="s">
+        <v>390</v>
+      </c>
+      <c r="F154">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>82</v>
+      </c>
+      <c r="C155" t="s">
+        <v>226</v>
+      </c>
+      <c r="D155" t="s">
+        <v>356</v>
+      </c>
+      <c r="E155" t="s">
+        <v>390</v>
+      </c>
+      <c r="F155">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>83</v>
+      </c>
+      <c r="C156" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156" t="s">
+        <v>390</v>
+      </c>
+      <c r="F156">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" t="s">
+        <v>314</v>
+      </c>
+      <c r="E157" t="s">
+        <v>390</v>
+      </c>
+      <c r="F157">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" t="s">
+        <v>314</v>
+      </c>
+      <c r="E158" t="s">
+        <v>390</v>
+      </c>
+      <c r="F158">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" t="s">
+        <v>314</v>
+      </c>
+      <c r="E159" t="s">
+        <v>390</v>
+      </c>
+      <c r="F159">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="s">
+        <v>227</v>
+      </c>
+      <c r="D160" t="s">
+        <v>314</v>
+      </c>
+      <c r="E160" t="s">
+        <v>390</v>
+      </c>
+      <c r="F160">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C161" t="s">
+        <v>228</v>
+      </c>
+      <c r="D161" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" t="s">
+        <v>390</v>
+      </c>
+      <c r="F161">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>84</v>
+      </c>
+      <c r="C162" t="s">
+        <v>229</v>
+      </c>
+      <c r="D162" t="s">
+        <v>309</v>
+      </c>
+      <c r="E162" t="s">
+        <v>390</v>
+      </c>
+      <c r="F162">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="s">
+        <v>230</v>
+      </c>
+      <c r="D163" t="s">
+        <v>357</v>
+      </c>
+      <c r="E163" t="s">
+        <v>390</v>
+      </c>
+      <c r="F163">
+        <v>2.62986301369863</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" t="s">
+        <v>231</v>
+      </c>
+      <c r="D164" t="s">
+        <v>358</v>
+      </c>
+      <c r="E164" t="s">
+        <v>390</v>
+      </c>
+      <c r="F164">
+        <v>2.66986301369863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165" t="s">
+        <v>359</v>
+      </c>
+      <c r="E165" t="s">
+        <v>390</v>
+      </c>
+      <c r="F165">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" t="s">
+        <v>233</v>
+      </c>
+      <c r="D166" t="s">
+        <v>353</v>
+      </c>
+      <c r="E166" t="s">
+        <v>390</v>
+      </c>
+      <c r="F166">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" t="s">
+        <v>353</v>
+      </c>
+      <c r="E167" t="s">
+        <v>390</v>
+      </c>
+      <c r="F167">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" t="s">
+        <v>353</v>
+      </c>
+      <c r="E168" t="s">
+        <v>390</v>
+      </c>
+      <c r="F168">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" t="s">
+        <v>353</v>
+      </c>
+      <c r="E169" t="s">
+        <v>390</v>
+      </c>
+      <c r="F169">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="s">
+        <v>234</v>
+      </c>
+      <c r="D170" t="s">
+        <v>314</v>
+      </c>
+      <c r="E170" t="s">
+        <v>390</v>
+      </c>
+      <c r="F170">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="s">
+        <v>234</v>
+      </c>
+      <c r="D171" t="s">
+        <v>314</v>
+      </c>
+      <c r="E171" t="s">
+        <v>390</v>
+      </c>
+      <c r="F171">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="s">
+        <v>234</v>
+      </c>
+      <c r="D172" t="s">
+        <v>314</v>
+      </c>
+      <c r="E172" t="s">
+        <v>390</v>
+      </c>
+      <c r="F172">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>90</v>
+      </c>
+      <c r="C173" t="s">
+        <v>235</v>
+      </c>
+      <c r="D173" t="s">
+        <v>352</v>
+      </c>
+      <c r="E173" t="s">
+        <v>390</v>
+      </c>
+      <c r="F173">
+        <v>2.73013698630137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>90</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" t="s">
+        <v>352</v>
+      </c>
+      <c r="E174" t="s">
+        <v>390</v>
+      </c>
+      <c r="F174">
+        <v>2.73013698630137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="s">
+        <v>236</v>
+      </c>
+      <c r="D175" t="s">
+        <v>295</v>
+      </c>
+      <c r="E175" t="s">
+        <v>390</v>
+      </c>
+      <c r="F175">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="s">
+        <v>236</v>
+      </c>
+      <c r="D176" t="s">
+        <v>295</v>
+      </c>
+      <c r="E176" t="s">
+        <v>390</v>
+      </c>
+      <c r="F176">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" t="s">
+        <v>237</v>
+      </c>
+      <c r="D177" t="s">
+        <v>327</v>
+      </c>
+      <c r="E177" t="s">
+        <v>390</v>
+      </c>
+      <c r="F177">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" t="s">
+        <v>318</v>
+      </c>
+      <c r="E178" t="s">
+        <v>390</v>
+      </c>
+      <c r="F178">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179" t="s">
+        <v>318</v>
+      </c>
+      <c r="E179" t="s">
+        <v>390</v>
+      </c>
+      <c r="F179">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" t="s">
+        <v>328</v>
+      </c>
+      <c r="E180" t="s">
+        <v>390</v>
+      </c>
+      <c r="F180">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" t="s">
+        <v>239</v>
+      </c>
+      <c r="D181" t="s">
+        <v>360</v>
+      </c>
+      <c r="E181" t="s">
+        <v>390</v>
+      </c>
+      <c r="F181">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>94</v>
+      </c>
+      <c r="C182" t="s">
+        <v>240</v>
+      </c>
+      <c r="D182" t="s">
+        <v>361</v>
+      </c>
+      <c r="E182" t="s">
+        <v>390</v>
+      </c>
+      <c r="F182">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183" t="s">
+        <v>362</v>
+      </c>
+      <c r="E183" t="s">
+        <v>390</v>
+      </c>
+      <c r="F183">
+        <v>2.86986301369863</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>96</v>
+      </c>
+      <c r="C184" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184" t="s">
+        <v>317</v>
+      </c>
+      <c r="E184" t="s">
+        <v>390</v>
+      </c>
+      <c r="F184">
+        <v>2.89013698630137</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>97</v>
+      </c>
+      <c r="C185" t="s">
+        <v>243</v>
+      </c>
+      <c r="D185" t="s">
+        <v>323</v>
+      </c>
+      <c r="E185" t="s">
+        <v>390</v>
+      </c>
+      <c r="F185">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" t="s">
+        <v>244</v>
+      </c>
+      <c r="D186" t="s">
+        <v>318</v>
+      </c>
+      <c r="E186" t="s">
+        <v>390</v>
+      </c>
+      <c r="F186">
+        <v>2.91013698630137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>99</v>
+      </c>
+      <c r="C187" t="s">
+        <v>245</v>
+      </c>
+      <c r="D187" t="s">
+        <v>363</v>
+      </c>
+      <c r="E187" t="s">
+        <v>390</v>
+      </c>
+      <c r="F187">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>99</v>
+      </c>
+      <c r="C188" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" t="s">
+        <v>363</v>
+      </c>
+      <c r="E188" t="s">
+        <v>390</v>
+      </c>
+      <c r="F188">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" t="s">
+        <v>245</v>
+      </c>
+      <c r="D189" t="s">
+        <v>363</v>
+      </c>
+      <c r="E189" t="s">
+        <v>390</v>
+      </c>
+      <c r="F189">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="s">
+        <v>246</v>
+      </c>
+      <c r="D190" t="s">
+        <v>364</v>
+      </c>
+      <c r="E190" t="s">
+        <v>390</v>
+      </c>
+      <c r="F190">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="s">
+        <v>246</v>
+      </c>
+      <c r="D191" t="s">
+        <v>364</v>
+      </c>
+      <c r="E191" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="s">
+        <v>246</v>
+      </c>
+      <c r="D192" t="s">
+        <v>364</v>
+      </c>
+      <c r="E192" t="s">
+        <v>390</v>
+      </c>
+      <c r="F192">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>100</v>
+      </c>
+      <c r="C193" t="s">
+        <v>247</v>
+      </c>
+      <c r="D193" t="s">
+        <v>365</v>
+      </c>
+      <c r="E193" t="s">
+        <v>390</v>
+      </c>
+      <c r="F193">
+        <v>2.93013698630137</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="s">
+        <v>248</v>
+      </c>
+      <c r="D194" t="s">
+        <v>346</v>
+      </c>
+      <c r="E194" t="s">
+        <v>390</v>
+      </c>
+      <c r="F194">
+        <v>3.13013698630137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>102</v>
+      </c>
+      <c r="C195" t="s">
+        <v>249</v>
+      </c>
+      <c r="D195" t="s">
+        <v>317</v>
+      </c>
+      <c r="E195" t="s">
+        <v>390</v>
+      </c>
+      <c r="F195">
+        <v>3.15013698630137</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>103</v>
+      </c>
+      <c r="C196" t="s">
+        <v>250</v>
+      </c>
+      <c r="D196" t="s">
+        <v>366</v>
+      </c>
+      <c r="E196" t="s">
+        <v>390</v>
+      </c>
+      <c r="F196">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>104</v>
+      </c>
+      <c r="C197" t="s">
+        <v>251</v>
+      </c>
+      <c r="D197" t="s">
+        <v>325</v>
+      </c>
+      <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" t="s">
+        <v>252</v>
+      </c>
+      <c r="D198" t="s">
+        <v>367</v>
+      </c>
+      <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>105</v>
+      </c>
+      <c r="C199" t="s">
+        <v>252</v>
+      </c>
+      <c r="D199" t="s">
+        <v>367</v>
+      </c>
+      <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>105</v>
+      </c>
+      <c r="C200" t="s">
+        <v>252</v>
+      </c>
+      <c r="D200" t="s">
+        <v>367</v>
+      </c>
+      <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>105</v>
+      </c>
+      <c r="C201" t="s">
+        <v>252</v>
+      </c>
+      <c r="D201" t="s">
+        <v>367</v>
+      </c>
+      <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>106</v>
+      </c>
+      <c r="C202" t="s">
+        <v>253</v>
+      </c>
+      <c r="D202" t="s">
+        <v>362</v>
+      </c>
+      <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202">
+        <v>3.55013698630137</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>107</v>
+      </c>
+      <c r="C203" t="s">
+        <v>254</v>
+      </c>
+      <c r="D203" t="s">
+        <v>368</v>
+      </c>
+      <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203">
+        <v>3.58986301369863</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>108</v>
+      </c>
+      <c r="C204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D204" t="s">
+        <v>369</v>
+      </c>
+      <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" t="s">
+        <v>256</v>
+      </c>
+      <c r="D205" t="s">
+        <v>370</v>
+      </c>
+      <c r="E205" t="s">
+        <v>390</v>
+      </c>
+      <c r="F205">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>109</v>
+      </c>
+      <c r="C206" t="s">
+        <v>257</v>
+      </c>
+      <c r="D206" t="s">
+        <v>371</v>
+      </c>
+      <c r="E206" t="s">
+        <v>390</v>
+      </c>
+      <c r="F206">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>110</v>
+      </c>
+      <c r="C207" t="s">
+        <v>258</v>
+      </c>
+      <c r="D207" t="s">
+        <v>372</v>
+      </c>
+      <c r="E207" t="s">
+        <v>390</v>
+      </c>
+      <c r="F207">
+        <v>3.71013698630137</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>110</v>
+      </c>
+      <c r="C208" t="s">
+        <v>258</v>
+      </c>
+      <c r="D208" t="s">
+        <v>372</v>
+      </c>
+      <c r="E208" t="s">
+        <v>390</v>
+      </c>
+      <c r="F208">
+        <v>3.71013698630137</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>111</v>
+      </c>
+      <c r="C209" t="s">
+        <v>259</v>
+      </c>
+      <c r="D209" t="s">
+        <v>373</v>
+      </c>
+      <c r="E209" t="s">
+        <v>390</v>
+      </c>
+      <c r="F209">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>111</v>
+      </c>
+      <c r="C210" t="s">
+        <v>260</v>
+      </c>
+      <c r="D210" t="s">
+        <v>374</v>
+      </c>
+      <c r="E210" t="s">
+        <v>390</v>
+      </c>
+      <c r="F210">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>111</v>
+      </c>
+      <c r="C211" t="s">
+        <v>261</v>
+      </c>
+      <c r="D211" t="s">
+        <v>359</v>
+      </c>
+      <c r="E211" t="s">
+        <v>390</v>
+      </c>
+      <c r="F211">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" t="s">
+        <v>262</v>
+      </c>
+      <c r="D212" t="s">
+        <v>375</v>
+      </c>
+      <c r="E212" t="s">
+        <v>390</v>
+      </c>
+      <c r="F212">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>113</v>
+      </c>
+      <c r="C213" t="s">
+        <v>263</v>
+      </c>
+      <c r="D213" t="s">
+        <v>323</v>
+      </c>
+      <c r="E213" t="s">
+        <v>390</v>
+      </c>
+      <c r="F213">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>114</v>
+      </c>
+      <c r="C214" t="s">
+        <v>264</v>
+      </c>
+      <c r="D214" t="s">
+        <v>376</v>
+      </c>
+      <c r="E214" t="s">
+        <v>390</v>
+      </c>
+      <c r="F214">
+        <v>3.89013698630137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>115</v>
+      </c>
+      <c r="C215" t="s">
+        <v>264</v>
+      </c>
+      <c r="D215" t="s">
+        <v>359</v>
+      </c>
+      <c r="E215" t="s">
+        <v>390</v>
+      </c>
+      <c r="F215">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>115</v>
+      </c>
+      <c r="C216" t="s">
+        <v>264</v>
+      </c>
+      <c r="D216" t="s">
+        <v>359</v>
+      </c>
+      <c r="E216" t="s">
+        <v>390</v>
+      </c>
+      <c r="F216">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>115</v>
+      </c>
+      <c r="C217" t="s">
+        <v>264</v>
+      </c>
+      <c r="D217" t="s">
+        <v>359</v>
+      </c>
+      <c r="E217" t="s">
+        <v>390</v>
+      </c>
+      <c r="F217">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>116</v>
+      </c>
+      <c r="C218" t="s">
+        <v>265</v>
+      </c>
+      <c r="D218" t="s">
+        <v>377</v>
+      </c>
+      <c r="E218" t="s">
+        <v>390</v>
+      </c>
+      <c r="F218">
+        <v>4.00986301369863</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>117</v>
+      </c>
+      <c r="C219" t="s">
+        <v>266</v>
+      </c>
+      <c r="D219" t="s">
+        <v>332</v>
+      </c>
+      <c r="E219" t="s">
+        <v>390</v>
+      </c>
+      <c r="F219">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" t="s">
+        <v>267</v>
+      </c>
+      <c r="D220" t="s">
+        <v>367</v>
+      </c>
+      <c r="E220" t="s">
+        <v>390</v>
+      </c>
+      <c r="F220">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>118</v>
+      </c>
+      <c r="C221" t="s">
+        <v>268</v>
+      </c>
+      <c r="D221" t="s">
+        <v>366</v>
+      </c>
+      <c r="E221" t="s">
+        <v>390</v>
+      </c>
+      <c r="F221">
+        <v>4.03013698630137</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>119</v>
+      </c>
+      <c r="C222" t="s">
+        <v>269</v>
+      </c>
+      <c r="D222" t="s">
+        <v>339</v>
+      </c>
+      <c r="E222" t="s">
+        <v>390</v>
+      </c>
+      <c r="F222">
+        <v>4.04986301369863</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" t="s">
+        <v>270</v>
+      </c>
+      <c r="D223" t="s">
+        <v>378</v>
+      </c>
+      <c r="E223" t="s">
+        <v>390</v>
+      </c>
+      <c r="F223">
+        <v>4.11013698630137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>121</v>
+      </c>
+      <c r="C224" t="s">
+        <v>271</v>
+      </c>
+      <c r="D224" t="s">
+        <v>358</v>
+      </c>
+      <c r="E224" t="s">
+        <v>390</v>
+      </c>
+      <c r="F224">
+        <v>4.13013698630137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>122</v>
+      </c>
+      <c r="C225" t="s">
+        <v>272</v>
+      </c>
+      <c r="D225" t="s">
+        <v>379</v>
+      </c>
+      <c r="E225" t="s">
+        <v>390</v>
+      </c>
+      <c r="F225">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>122</v>
+      </c>
+      <c r="C226" t="s">
+        <v>273</v>
+      </c>
+      <c r="D226" t="s">
+        <v>336</v>
+      </c>
+      <c r="E226" t="s">
+        <v>390</v>
+      </c>
+      <c r="F226">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>122</v>
+      </c>
+      <c r="C227" t="s">
+        <v>273</v>
+      </c>
+      <c r="D227" t="s">
+        <v>336</v>
+      </c>
+      <c r="E227" t="s">
+        <v>390</v>
+      </c>
+      <c r="F227">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>123</v>
+      </c>
+      <c r="C228" t="s">
+        <v>274</v>
+      </c>
+      <c r="D228" t="s">
+        <v>361</v>
+      </c>
+      <c r="E228" t="s">
+        <v>390</v>
+      </c>
+      <c r="F228">
+        <v>4.15013698630137</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>124</v>
+      </c>
+      <c r="C229" t="s">
+        <v>275</v>
+      </c>
+      <c r="D229" t="s">
+        <v>380</v>
+      </c>
+      <c r="E229" t="s">
+        <v>390</v>
+      </c>
+      <c r="F229">
+        <v>4.16986301369863</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>125</v>
+      </c>
+      <c r="C230" t="s">
+        <v>276</v>
+      </c>
+      <c r="D230" t="s">
+        <v>381</v>
+      </c>
+      <c r="E230" t="s">
+        <v>390</v>
+      </c>
+      <c r="F230">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>125</v>
+      </c>
+      <c r="C231" t="s">
+        <v>276</v>
+      </c>
+      <c r="D231" t="s">
+        <v>382</v>
+      </c>
+      <c r="E231" t="s">
+        <v>390</v>
+      </c>
+      <c r="F231">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>125</v>
+      </c>
+      <c r="C232" t="s">
+        <v>276</v>
+      </c>
+      <c r="D232" t="s">
+        <v>382</v>
+      </c>
+      <c r="E232" t="s">
+        <v>390</v>
+      </c>
+      <c r="F232">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>125</v>
+      </c>
+      <c r="C233" t="s">
+        <v>276</v>
+      </c>
+      <c r="D233" t="s">
+        <v>382</v>
+      </c>
+      <c r="E233" t="s">
+        <v>390</v>
+      </c>
+      <c r="F233">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" t="s">
+        <v>276</v>
+      </c>
+      <c r="D234" t="s">
+        <v>332</v>
+      </c>
+      <c r="E234" t="s">
+        <v>390</v>
+      </c>
+      <c r="F234">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" t="s">
+        <v>277</v>
+      </c>
+      <c r="D235" t="s">
+        <v>332</v>
+      </c>
+      <c r="E235" t="s">
+        <v>390</v>
+      </c>
+      <c r="F235">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>125</v>
+      </c>
+      <c r="C236" t="s">
+        <v>277</v>
+      </c>
+      <c r="D236" t="s">
+        <v>383</v>
+      </c>
+      <c r="E236" t="s">
+        <v>390</v>
+      </c>
+      <c r="F236">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>125</v>
+      </c>
+      <c r="C237" t="s">
+        <v>276</v>
+      </c>
+      <c r="D237" t="s">
+        <v>384</v>
+      </c>
+      <c r="E237" t="s">
+        <v>390</v>
+      </c>
+      <c r="F237">
+        <v>4.21013698630137</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>126</v>
+      </c>
+      <c r="C238" t="s">
+        <v>278</v>
+      </c>
+      <c r="D238" t="s">
+        <v>385</v>
+      </c>
+      <c r="E238" t="s">
+        <v>390</v>
+      </c>
+      <c r="F238">
+        <v>4.239999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>127</v>
+      </c>
+      <c r="C239" t="s">
+        <v>279</v>
+      </c>
+      <c r="D239" t="s">
+        <v>386</v>
+      </c>
+      <c r="E239" t="s">
+        <v>390</v>
+      </c>
+      <c r="F239">
+        <v>4.260000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>128</v>
+      </c>
+      <c r="C240" t="s">
+        <v>280</v>
+      </c>
+      <c r="D240" t="s">
+        <v>385</v>
+      </c>
+      <c r="E240" t="s">
+        <v>390</v>
+      </c>
+      <c r="F240">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>129</v>
+      </c>
+      <c r="C241" t="s">
+        <v>281</v>
+      </c>
+      <c r="D241" t="s">
+        <v>378</v>
+      </c>
+      <c r="E241" t="s">
+        <v>390</v>
+      </c>
+      <c r="F241">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>130</v>
+      </c>
+      <c r="C242" t="s">
+        <v>282</v>
+      </c>
+      <c r="D242" t="s">
+        <v>384</v>
+      </c>
+      <c r="E242" t="s">
+        <v>390</v>
+      </c>
+      <c r="F242">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>131</v>
+      </c>
+      <c r="C243" t="s">
+        <v>283</v>
+      </c>
+      <c r="D243" t="s">
+        <v>387</v>
+      </c>
+      <c r="E243" t="s">
+        <v>390</v>
+      </c>
+      <c r="F243">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>131</v>
+      </c>
+      <c r="C244" t="s">
+        <v>283</v>
+      </c>
+      <c r="D244" t="s">
+        <v>387</v>
+      </c>
+      <c r="E244" t="s">
+        <v>390</v>
+      </c>
+      <c r="F244">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>131</v>
+      </c>
+      <c r="C245" t="s">
+        <v>283</v>
+      </c>
+      <c r="D245" t="s">
+        <v>387</v>
+      </c>
+      <c r="E245" t="s">
+        <v>390</v>
+      </c>
+      <c r="F245">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" t="s">
+        <v>284</v>
+      </c>
+      <c r="D246" t="s">
+        <v>388</v>
+      </c>
+      <c r="E246" t="s">
+        <v>390</v>
+      </c>
+      <c r="F246">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" t="s">
+        <v>284</v>
+      </c>
+      <c r="D247" t="s">
+        <v>388</v>
+      </c>
+      <c r="E247" t="s">
+        <v>390</v>
+      </c>
+      <c r="F247">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>132</v>
+      </c>
+      <c r="C248" t="s">
+        <v>284</v>
+      </c>
+      <c r="D248" t="s">
+        <v>388</v>
+      </c>
+      <c r="E248" t="s">
+        <v>390</v>
+      </c>
+      <c r="F248">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" t="s">
+        <v>285</v>
+      </c>
+      <c r="D249" t="s">
+        <v>388</v>
+      </c>
+      <c r="E249" t="s">
+        <v>390</v>
+      </c>
+      <c r="F249">
+        <v>4.84986301369863</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" t="s">
+        <v>285</v>
+      </c>
+      <c r="D250" t="s">
+        <v>388</v>
+      </c>
+      <c r="E250" t="s">
+        <v>390</v>
+      </c>
+      <c r="F250">
+        <v>4.84986301369863</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" t="s">
+        <v>286</v>
+      </c>
+      <c r="D251" t="s">
+        <v>389</v>
+      </c>
+      <c r="E251" t="s">
+        <v>390</v>
+      </c>
+      <c r="F251">
+        <v>4.95013698630137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" t="s">
+        <v>286</v>
+      </c>
+      <c r="D252" t="s">
+        <v>389</v>
+      </c>
+      <c r="E252" t="s">
+        <v>390</v>
+      </c>
+      <c r="F252">
+        <v>4.95013698630137</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/中票.xlsx
+++ b/data/BondDeal/中票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="393">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,67 +31,79 @@
     <t>year</t>
   </si>
   <si>
-    <t>0.81+10Y</t>
-  </si>
-  <si>
-    <t>295D</t>
-  </si>
-  <si>
-    <t>301D+N</t>
-  </si>
-  <si>
-    <t>304D</t>
-  </si>
-  <si>
-    <t>305D(休2)</t>
-  </si>
-  <si>
-    <t>307D</t>
-  </si>
-  <si>
-    <t>308D+N</t>
-  </si>
-  <si>
-    <t>315D+N</t>
-  </si>
-  <si>
-    <t>322D</t>
-  </si>
-  <si>
-    <t>336D</t>
-  </si>
-  <si>
-    <t>1.02Y</t>
-  </si>
-  <si>
-    <t>1.05Y+2Y</t>
-  </si>
-  <si>
-    <t>1.05Y</t>
+    <t>306D</t>
+  </si>
+  <si>
+    <t>311D(休2)</t>
+  </si>
+  <si>
+    <t>326D+2Y</t>
+  </si>
+  <si>
+    <t>340D(休1)</t>
+  </si>
+  <si>
+    <t>341D</t>
+  </si>
+  <si>
+    <t>341D+NY</t>
+  </si>
+  <si>
+    <t>346D(休2)</t>
+  </si>
+  <si>
+    <t>347D+N</t>
+  </si>
+  <si>
+    <t>355D+NY</t>
+  </si>
+  <si>
+    <t>1.02Y+2Y</t>
+  </si>
+  <si>
+    <t>1.04Y</t>
+  </si>
+  <si>
+    <t>1.07Y</t>
   </si>
   <si>
     <t>1.13Y</t>
   </si>
   <si>
-    <t>1.18Y+2Y</t>
+    <t>1.14Y</t>
+  </si>
+  <si>
+    <t>1.15Y</t>
+  </si>
+  <si>
+    <t>1.17Y</t>
+  </si>
+  <si>
+    <t>1.2Y</t>
   </si>
   <si>
     <t>1.2Y+N</t>
   </si>
   <si>
+    <t>1.21Y</t>
+  </si>
+  <si>
     <t>1.22Y</t>
   </si>
   <si>
-    <t>1.27Y</t>
+    <t>1.24Y</t>
+  </si>
+  <si>
+    <t>1.26Y</t>
   </si>
   <si>
     <t>1.28Y</t>
   </si>
   <si>
-    <t>1.32Y</t>
-  </si>
-  <si>
-    <t>1.34Y</t>
+    <t>1.33Y</t>
+  </si>
+  <si>
+    <t>1.37Y</t>
   </si>
   <si>
     <t>1.39Y</t>
@@ -100,85 +112,91 @@
     <t>1.41Y</t>
   </si>
   <si>
-    <t>1.43Y</t>
-  </si>
-  <si>
-    <t>1.45Y</t>
-  </si>
-  <si>
-    <t>1.46Y</t>
-  </si>
-  <si>
-    <t>1.49Y</t>
+    <t>1.50Y</t>
   </si>
   <si>
     <t>1.51Y</t>
   </si>
   <si>
-    <t>1.52Y</t>
-  </si>
-  <si>
-    <t>1.54Y</t>
-  </si>
-  <si>
-    <t>1.54Y+2Y</t>
+    <t>1.53Y</t>
+  </si>
+  <si>
+    <t>1.53Y+N</t>
   </si>
   <si>
     <t>1.55Y</t>
   </si>
   <si>
+    <t>1.55Y+N</t>
+  </si>
+  <si>
     <t>1.56Y</t>
   </si>
   <si>
-    <t>1.57Y</t>
-  </si>
-  <si>
-    <t>1.59Y+2Y</t>
-  </si>
-  <si>
-    <t>1.59Y+N</t>
+    <t>1.58Y</t>
+  </si>
+  <si>
+    <t>1.59Y</t>
+  </si>
+  <si>
+    <t>1.6Y</t>
   </si>
   <si>
     <t>1.61Y</t>
   </si>
   <si>
-    <t>1.61Y+N</t>
-  </si>
-  <si>
     <t>1.62Y</t>
   </si>
   <si>
-    <t>1.66Y</t>
-  </si>
-  <si>
     <t>1.66Y+N</t>
   </si>
   <si>
-    <t>1.67Y</t>
-  </si>
-  <si>
-    <t>1.7Y</t>
-  </si>
-  <si>
     <t>1.72Y</t>
   </si>
   <si>
-    <t>1.76Y</t>
+    <t>1.72Y+N</t>
   </si>
   <si>
     <t>1.78Y</t>
   </si>
   <si>
-    <t>1.8Y</t>
-  </si>
-  <si>
-    <t>1.82Y+N</t>
-  </si>
-  <si>
-    <t>1.86Y</t>
-  </si>
-  <si>
-    <t>1.93Y+N</t>
+    <t>1.79Y</t>
+  </si>
+  <si>
+    <t>1.85Y+N</t>
+  </si>
+  <si>
+    <t>1.87Y</t>
+  </si>
+  <si>
+    <t>1.87Y+N</t>
+  </si>
+  <si>
+    <t>1.88Y+N</t>
+  </si>
+  <si>
+    <t>1.89Y+2Y</t>
+  </si>
+  <si>
+    <t>1.9Y</t>
+  </si>
+  <si>
+    <t>1.92Y</t>
+  </si>
+  <si>
+    <t>1.93Y+2Y</t>
+  </si>
+  <si>
+    <t>1.94Y+N</t>
+  </si>
+  <si>
+    <t>1.94Y</t>
+  </si>
+  <si>
+    <t>1.95Y+N</t>
+  </si>
+  <si>
+    <t>1.96Y+N</t>
   </si>
   <si>
     <t>2.01Y</t>
@@ -187,42 +205,51 @@
     <t>2.02Y</t>
   </si>
   <si>
-    <t>2.03Y+N</t>
-  </si>
-  <si>
-    <t>2.03Y</t>
-  </si>
-  <si>
-    <t>2.08Y</t>
-  </si>
-  <si>
-    <t>2.12Y+NY</t>
-  </si>
-  <si>
-    <t>2.17Y</t>
+    <t>2.1Y</t>
+  </si>
+  <si>
+    <t>2.11Y+N</t>
+  </si>
+  <si>
+    <t>2.12Y+N</t>
+  </si>
+  <si>
+    <t>2.13Y+N</t>
+  </si>
+  <si>
+    <t>2.15Y+NY</t>
+  </si>
+  <si>
+    <t>2.16Y</t>
   </si>
   <si>
     <t>2.18Y</t>
   </si>
   <si>
-    <t>2.19Y</t>
+    <t>2.21Y</t>
+  </si>
+  <si>
+    <t>2.22Y+N</t>
   </si>
   <si>
     <t>2.23Y</t>
   </si>
   <si>
+    <t>2.24Y+2Y</t>
+  </si>
+  <si>
     <t>2.24Y</t>
   </si>
   <si>
+    <t>2.25Y</t>
+  </si>
+  <si>
     <t>2.26Y</t>
   </si>
   <si>
     <t>2.27Y</t>
   </si>
   <si>
-    <t>2.27Y+N</t>
-  </si>
-  <si>
     <t>2.28Y</t>
   </si>
   <si>
@@ -235,67 +262,58 @@
     <t>2.31Y</t>
   </si>
   <si>
-    <t>2.32Y</t>
-  </si>
-  <si>
-    <t>2.38Y</t>
+    <t>2.35Y</t>
+  </si>
+  <si>
+    <t>2.37Y+N</t>
   </si>
   <si>
     <t>2.39Y</t>
   </si>
   <si>
-    <t>2.41Y</t>
-  </si>
-  <si>
-    <t>2.42Y</t>
-  </si>
-  <si>
-    <t>2.45Y</t>
-  </si>
-  <si>
-    <t>2.52Y</t>
-  </si>
-  <si>
-    <t>2.54Y</t>
-  </si>
-  <si>
-    <t>2.58Y</t>
-  </si>
-  <si>
-    <t>2.6Y</t>
+    <t>2.43Y</t>
+  </si>
+  <si>
+    <t>2.44Y</t>
+  </si>
+  <si>
+    <t>2.45Y+N</t>
+  </si>
+  <si>
+    <t>2.55Y</t>
+  </si>
+  <si>
+    <t>2.56Y</t>
+  </si>
+  <si>
+    <t>2.60Y</t>
   </si>
   <si>
     <t>2.61Y</t>
   </si>
   <si>
+    <t>2.62Y+N</t>
+  </si>
+  <si>
     <t>2.62Y</t>
   </si>
   <si>
     <t>2.63Y</t>
   </si>
   <si>
-    <t>2.67Y</t>
-  </si>
-  <si>
-    <t>2.7Y</t>
-  </si>
-  <si>
-    <t>2.70Y</t>
-  </si>
-  <si>
-    <t>2.72Y</t>
-  </si>
-  <si>
-    <t>2.73Y</t>
-  </si>
-  <si>
-    <t>2.78Y</t>
-  </si>
-  <si>
-    <t>2.82Y</t>
-  </si>
-  <si>
-    <t>2.83Y</t>
+    <t>2.66Y+N</t>
+  </si>
+  <si>
+    <t>2.69Y</t>
+  </si>
+  <si>
+    <t>2.69Y+N</t>
+  </si>
+  <si>
+    <t>2.71Y</t>
+  </si>
+  <si>
+    <t>2.81Y+N</t>
   </si>
   <si>
     <t>2.86Y</t>
@@ -307,46 +325,40 @@
     <t>2.89Y+2Y</t>
   </si>
   <si>
-    <t>2.9Y</t>
-  </si>
-  <si>
-    <t>2.91Y</t>
-  </si>
-  <si>
     <t>2.92Y+2Y</t>
   </si>
   <si>
     <t>2.93Y+2Y</t>
   </si>
   <si>
-    <t>3.13Y</t>
-  </si>
-  <si>
-    <t>3.15Y</t>
-  </si>
-  <si>
-    <t>3.18Y</t>
-  </si>
-  <si>
-    <t>3.26Y</t>
-  </si>
-  <si>
-    <t>3.30Y+N</t>
-  </si>
-  <si>
-    <t>3.55Y</t>
-  </si>
-  <si>
-    <t>3.59Y+N</t>
-  </si>
-  <si>
-    <t>3.62Y</t>
-  </si>
-  <si>
-    <t>3.66Y</t>
-  </si>
-  <si>
-    <t>3.71Y</t>
+    <t>2.93Y</t>
+  </si>
+  <si>
+    <t>2.94Y+N</t>
+  </si>
+  <si>
+    <t>2.95Y</t>
+  </si>
+  <si>
+    <t>3.05Y</t>
+  </si>
+  <si>
+    <t>3.16Y</t>
+  </si>
+  <si>
+    <t>3.17Y</t>
+  </si>
+  <si>
+    <t>3.2Y</t>
+  </si>
+  <si>
+    <t>3.21Y+N</t>
+  </si>
+  <si>
+    <t>3.37Y</t>
+  </si>
+  <si>
+    <t>3.65Y</t>
   </si>
   <si>
     <t>3.72Y</t>
@@ -355,49 +367,28 @@
     <t>3.78Y</t>
   </si>
   <si>
-    <t>3.84Y</t>
-  </si>
-  <si>
     <t>3.89Y</t>
   </si>
   <si>
-    <t>3.90Y</t>
-  </si>
-  <si>
     <t>4.01Y</t>
   </si>
   <si>
-    <t>4.02Y</t>
-  </si>
-  <si>
     <t>4.03Y</t>
   </si>
   <si>
-    <t>4.05Y</t>
-  </si>
-  <si>
-    <t>4.11Y</t>
-  </si>
-  <si>
     <t>4.13Y</t>
   </si>
   <si>
-    <t>4.14Y</t>
-  </si>
-  <si>
     <t>4.15Y</t>
   </si>
   <si>
-    <t>4.17Y</t>
+    <t>4.18Y</t>
   </si>
   <si>
     <t>4.21Y</t>
   </si>
   <si>
-    <t>4.24Y</t>
-  </si>
-  <si>
-    <t>4.26Y</t>
+    <t>4.22Y</t>
   </si>
   <si>
     <t>4.28Y</t>
@@ -406,178 +397,166 @@
     <t>4.29Y</t>
   </si>
   <si>
-    <t>4.3Y</t>
-  </si>
-  <si>
-    <t>4.31Y</t>
-  </si>
-  <si>
-    <t>4.46Y</t>
-  </si>
-  <si>
-    <t>4.85Y</t>
-  </si>
-  <si>
-    <t>4.95Y</t>
-  </si>
-  <si>
-    <t>16武汉地铁GN002</t>
-  </si>
-  <si>
-    <t>16兴城投资MTN001</t>
-  </si>
-  <si>
-    <t>16北控水务GN001</t>
-  </si>
-  <si>
-    <t>18中粮地产MTN003</t>
-  </si>
-  <si>
-    <t>14三峡MTN002</t>
+    <t>4.34Y</t>
+  </si>
+  <si>
+    <t>4.35Y</t>
+  </si>
+  <si>
+    <t>4.37Y</t>
+  </si>
+  <si>
+    <t>4.39Y</t>
   </si>
   <si>
     <t>18汇金MTN014</t>
   </si>
   <si>
-    <t>18南昌城投MTN002</t>
-  </si>
-  <si>
-    <t>16绍兴城投MTN001</t>
-  </si>
-  <si>
-    <t>18豫高管MTN005</t>
-  </si>
-  <si>
-    <t>18朝阳国资MTN002</t>
-  </si>
-  <si>
-    <t>18平安租赁MTN001</t>
-  </si>
-  <si>
-    <t>16南京安居MTN001</t>
-  </si>
-  <si>
-    <t>18光大集团MTN002</t>
-  </si>
-  <si>
-    <t>19南电MTN001</t>
-  </si>
-  <si>
-    <t>19中油股MTN001</t>
-  </si>
-  <si>
-    <t>19中电信MTN001</t>
-  </si>
-  <si>
-    <t>19深圳特发MTN001</t>
+    <t>18湘高速MTN002</t>
+  </si>
+  <si>
+    <t>18兴蓉环境MTN001</t>
+  </si>
+  <si>
+    <t>18淮北矿MTN002</t>
+  </si>
+  <si>
+    <t>18华发集团MTN001</t>
+  </si>
+  <si>
+    <t>18中铁股MTN002A</t>
+  </si>
+  <si>
+    <t>18信达投资MTN001</t>
+  </si>
+  <si>
+    <t>18中铁股MTN003A</t>
+  </si>
+  <si>
+    <t>18大唐集MTN003</t>
+  </si>
+  <si>
+    <t>19中石油MTN002</t>
+  </si>
+  <si>
+    <t>19中交投MTN001</t>
+  </si>
+  <si>
+    <t>19苏国信MTN001</t>
   </si>
   <si>
     <t>19鞍钢集MTN001</t>
   </si>
   <si>
-    <t>19沪临港MTN001</t>
+    <t>19乳山国运MTN001</t>
+  </si>
+  <si>
+    <t>19淮北矿MTN001</t>
+  </si>
+  <si>
+    <t>19格力MTN001</t>
+  </si>
+  <si>
+    <t>19北京国资MTN001</t>
   </si>
   <si>
     <t>17川铁投MTN001</t>
   </si>
   <si>
+    <t>17首钢MTN002</t>
+  </si>
+  <si>
+    <t>19闽冶金MTN001</t>
+  </si>
+  <si>
+    <t>19南电MTN004</t>
+  </si>
+  <si>
+    <t>19豫高管MTN001</t>
+  </si>
+  <si>
     <t>19中化工MTN001</t>
   </si>
   <si>
-    <t>19甬交投MTN001</t>
-  </si>
-  <si>
-    <t>19高科技投MTN001</t>
-  </si>
-  <si>
-    <t>17中航工MTN001</t>
-  </si>
-  <si>
-    <t>19中建材MTN001</t>
-  </si>
-  <si>
-    <t>19川高速MTN001</t>
+    <t>19宝钢MTN003</t>
+  </si>
+  <si>
+    <t>19北京国资MTN002</t>
+  </si>
+  <si>
+    <t>19外高桥MTN001</t>
+  </si>
+  <si>
+    <t>17中节能MTN001</t>
+  </si>
+  <si>
+    <t>19苏交通MTN002</t>
+  </si>
+  <si>
+    <t>15中电投MTN002</t>
   </si>
   <si>
     <t>15闽高速MTN001</t>
   </si>
   <si>
-    <t>15闽高速MTN002</t>
-  </si>
-  <si>
-    <t>19深圳水务MTN002</t>
-  </si>
-  <si>
-    <t>19汇金MTN011</t>
-  </si>
-  <si>
-    <t>19南电MTN005</t>
-  </si>
-  <si>
-    <t>19中石油MTN003</t>
-  </si>
-  <si>
-    <t>19中石油MTN004</t>
-  </si>
-  <si>
-    <t>19南方水泥MTN002</t>
-  </si>
-  <si>
-    <t>17华能MTN001</t>
-  </si>
-  <si>
-    <t>19西南水泥MTN002</t>
-  </si>
-  <si>
-    <t>19绍兴交投MTN003</t>
-  </si>
-  <si>
-    <t>19陆家嘴MTN001</t>
-  </si>
-  <si>
-    <t>19越秀集团MTN002</t>
+    <t>19闽能源MTN001</t>
+  </si>
+  <si>
+    <t>19云能投MTN002</t>
+  </si>
+  <si>
+    <t>19上实MTN002</t>
+  </si>
+  <si>
+    <t>19陕延油MTN008</t>
+  </si>
+  <si>
+    <t>17川发展MTN001</t>
+  </si>
+  <si>
+    <t>19华润MTN005</t>
+  </si>
+  <si>
+    <t>17兴城投资MTN001</t>
+  </si>
+  <si>
+    <t>19太不锈MTN001</t>
+  </si>
+  <si>
+    <t>19大唐集MTN001A</t>
   </si>
   <si>
     <t>19亦庄控股MTN001</t>
   </si>
   <si>
-    <t>19鲁能源MTN001</t>
-  </si>
-  <si>
-    <t>19长电MTN002</t>
-  </si>
-  <si>
-    <t>19陕延油MTN007</t>
-  </si>
-  <si>
-    <t>19外高桥MTN003</t>
-  </si>
-  <si>
-    <t>19陕延油MTN009</t>
-  </si>
-  <si>
-    <t>19华润控股MTN004</t>
-  </si>
-  <si>
-    <t>17武汉地产MTN001</t>
+    <t>19蓝星MTN001</t>
+  </si>
+  <si>
+    <t>19甬交投MTN003</t>
+  </si>
+  <si>
+    <t>19闽能源MTN002</t>
+  </si>
+  <si>
+    <t>19陕延油MTN010</t>
+  </si>
+  <si>
+    <t>17武金控MTN001</t>
+  </si>
+  <si>
+    <t>19中远海发MTN002</t>
+  </si>
+  <si>
+    <t>19南方水泥MTN003</t>
   </si>
   <si>
     <t>19东航MTN001</t>
   </si>
   <si>
-    <t>19中电国际MTN001</t>
-  </si>
-  <si>
-    <t>20无锡建投MTN001</t>
-  </si>
-  <si>
-    <t>19中化工MTN004</t>
-  </si>
-  <si>
-    <t>19汇金MTN015</t>
-  </si>
-  <si>
-    <t>19海运集装MTN002</t>
+    <t>19陆家嘴MTN002</t>
+  </si>
+  <si>
+    <t>19鄂交投MTN004</t>
   </si>
   <si>
     <t>19齐鲁交通MTN001</t>
@@ -586,118 +565,169 @@
     <t>17鲁高速MTN003</t>
   </si>
   <si>
-    <t>19光明MTN001</t>
-  </si>
-  <si>
-    <t>19汇金MTN017</t>
-  </si>
-  <si>
-    <t>17建发地产MTN002</t>
-  </si>
-  <si>
-    <t>14宿产发MTN001</t>
-  </si>
-  <si>
-    <t>19华能集MTN005A</t>
-  </si>
-  <si>
-    <t>20粤珠江MTN001</t>
+    <t>19中铝集MTN008</t>
+  </si>
+  <si>
+    <t>19汇金MTN019</t>
+  </si>
+  <si>
+    <t>19沪电力MTN002</t>
+  </si>
+  <si>
+    <t>19中铁股MTN005A</t>
+  </si>
+  <si>
+    <t>20复星高科MTN004</t>
+  </si>
+  <si>
+    <t>19科学城MTN001</t>
+  </si>
+  <si>
+    <t>20深圳地铁MTN003</t>
+  </si>
+  <si>
+    <t>19嘉兴国资MTN001</t>
+  </si>
+  <si>
+    <t>20大唐集MTN005A</t>
+  </si>
+  <si>
+    <t>15苏轨交MTN001</t>
+  </si>
+  <si>
+    <t>19国电MTN005</t>
+  </si>
+  <si>
+    <t>20中电投MTN025</t>
+  </si>
+  <si>
+    <t>20南电MTN001</t>
+  </si>
+  <si>
+    <t>20越秀交通MTN001</t>
+  </si>
+  <si>
+    <t>20中金集MTN001</t>
   </si>
   <si>
     <t>20汇金MTN001</t>
   </si>
   <si>
-    <t>20华电股MTN001A</t>
-  </si>
-  <si>
-    <t>20中建材MTN001</t>
-  </si>
-  <si>
-    <t>20宁夏国资MTN001</t>
-  </si>
-  <si>
-    <t>19河钢集MTN002B</t>
-  </si>
-  <si>
-    <t>18鄂联投MTN002</t>
-  </si>
-  <si>
-    <t>20蓝星MTN001</t>
-  </si>
-  <si>
-    <t>20天成租赁GN001</t>
-  </si>
-  <si>
-    <t>18常城建MTN003</t>
+    <t>20南航股MTN001</t>
+  </si>
+  <si>
+    <t>20华电MTN001A</t>
+  </si>
+  <si>
+    <t>20华电股MTN002A</t>
+  </si>
+  <si>
+    <t>20保利发展MTN001</t>
+  </si>
+  <si>
+    <t>20首开MTN001</t>
+  </si>
+  <si>
+    <t>20南电MTN004</t>
+  </si>
+  <si>
+    <t>20深业MTN001</t>
+  </si>
+  <si>
+    <t>20广晟MTN002</t>
+  </si>
+  <si>
+    <t>20金茂投资MTN001</t>
+  </si>
+  <si>
+    <t>20中石油MTN001</t>
+  </si>
+  <si>
+    <t>20中电投MTN004</t>
   </si>
   <si>
     <t>20中石化MTN001</t>
   </si>
   <si>
+    <t>20湘高速MTN002</t>
+  </si>
+  <si>
+    <t>18华润置地MTN002B</t>
+  </si>
+  <si>
     <t>20中油股MTN002</t>
   </si>
   <si>
-    <t>20首农食品MTN002</t>
+    <t>20中油股MTN001</t>
+  </si>
+  <si>
+    <t>20国新控股MTN002</t>
+  </si>
+  <si>
+    <t>20中化橡胶MTN001</t>
   </si>
   <si>
     <t>20苏国信MTN005</t>
   </si>
   <si>
-    <t>20国网新源MTN001</t>
-  </si>
-  <si>
-    <t>20中电投MTN006</t>
-  </si>
-  <si>
-    <t>20华侨城MTN002</t>
-  </si>
-  <si>
-    <t>18广州地铁MTN002</t>
-  </si>
-  <si>
-    <t>20汇金MTN005</t>
-  </si>
-  <si>
-    <t>18苏国信MTN002B</t>
-  </si>
-  <si>
-    <t>20蓝星MTN003</t>
-  </si>
-  <si>
-    <t>20中石油MTN005</t>
-  </si>
-  <si>
-    <t>18九龙江MTN001</t>
-  </si>
-  <si>
-    <t>20宝武集团MTN001</t>
+    <t>20张江高科MTN001</t>
+  </si>
+  <si>
+    <t>20鲁能源MTN002A</t>
+  </si>
+  <si>
+    <t>18越秀集团MTN002</t>
+  </si>
+  <si>
+    <t>20苏广播MTN001</t>
+  </si>
+  <si>
+    <t>20中石油MTN004</t>
+  </si>
+  <si>
+    <t>20川高速MTN002</t>
+  </si>
+  <si>
+    <t>20粤电开GN001</t>
+  </si>
+  <si>
+    <t>20宁夏国资MTN002</t>
+  </si>
+  <si>
+    <t>16杭州地铁MTN002</t>
+  </si>
+  <si>
+    <t>20华电MTN004A</t>
   </si>
   <si>
     <t>20中石化MTN003</t>
   </si>
   <si>
-    <t>20红狮MTN001</t>
-  </si>
-  <si>
-    <t>18新盛建设MTN003</t>
-  </si>
-  <si>
-    <t>20汇金MTN008A</t>
-  </si>
-  <si>
-    <t>18九龙江MTN003</t>
-  </si>
-  <si>
-    <t>20北京国资MTN002</t>
-  </si>
-  <si>
-    <t>18上饶投资MTN001</t>
-  </si>
-  <si>
-    <t>18金隅MTN003</t>
-  </si>
-  <si>
-    <t>18中建MTN002</t>
+    <t>20成都产投MTN001</t>
+  </si>
+  <si>
+    <t>20深圳地铁MTN001</t>
+  </si>
+  <si>
+    <t>20华能MTN002</t>
+  </si>
+  <si>
+    <t>18渝高新MTN002</t>
+  </si>
+  <si>
+    <t>18越秀金融MTN004</t>
+  </si>
+  <si>
+    <t>18萧山国资MTN002</t>
+  </si>
+  <si>
+    <t>20金地MTN003</t>
+  </si>
+  <si>
+    <t>18中建MTN001</t>
+  </si>
+  <si>
+    <t>20华能MTN003</t>
   </si>
   <si>
     <t>20汇金MTN009A</t>
@@ -706,487 +736,460 @@
     <t>20招商蛇口MTN002A</t>
   </si>
   <si>
-    <t>18鲁能源MTN001</t>
-  </si>
-  <si>
-    <t>18陕煤化MTN003</t>
-  </si>
-  <si>
-    <t>20广晟MTN004</t>
+    <t>20凤凰传媒MTN002</t>
+  </si>
+  <si>
+    <t>20大唐集MTN002</t>
   </si>
   <si>
     <t>20苏交通MTN005</t>
   </si>
   <si>
-    <t>20赣高速MTN003</t>
-  </si>
-  <si>
-    <t>20华发实业MTN003</t>
-  </si>
-  <si>
-    <t>20豫交运MTN006</t>
-  </si>
-  <si>
-    <t>20赣铁投MTN002</t>
-  </si>
-  <si>
-    <t>20汇金MTN010A</t>
+    <t>20大唐集MTN003</t>
+  </si>
+  <si>
+    <t>20金融街MTN001A</t>
+  </si>
+  <si>
+    <t>20中建二局MTN002</t>
   </si>
   <si>
     <t>20中化工MTN011</t>
   </si>
   <si>
-    <t>18无锡建投MTN003</t>
-  </si>
-  <si>
     <t>20金融街MTN002</t>
   </si>
   <si>
     <t>20广州城投MTN001</t>
   </si>
   <si>
-    <t>18京汽集MTN003</t>
-  </si>
-  <si>
-    <t>18三峡GN001</t>
-  </si>
-  <si>
-    <t>20湘高速MTN007</t>
-  </si>
-  <si>
     <t>20青岛城投MTN004</t>
   </si>
   <si>
     <t>20金融街MTN003</t>
   </si>
   <si>
-    <t>19中油股MTN004</t>
-  </si>
-  <si>
-    <t>19苏国资MTN002</t>
-  </si>
-  <si>
-    <t>19金隅MTN001</t>
-  </si>
-  <si>
-    <t>19洪市政MTN001</t>
-  </si>
-  <si>
-    <t>19乌城投MTN002</t>
-  </si>
-  <si>
-    <t>19国新控股MTN003</t>
-  </si>
-  <si>
-    <t>19济南轨交MTN001</t>
-  </si>
-  <si>
-    <t>19陕煤化MTN003</t>
-  </si>
-  <si>
-    <t>19甘交建MTN002</t>
-  </si>
-  <si>
-    <t>19陕煤化MTN004</t>
-  </si>
-  <si>
-    <t>19兆润投资MTN001</t>
-  </si>
-  <si>
-    <t>19豫交投MTN001</t>
-  </si>
-  <si>
-    <t>19南电MTN008</t>
-  </si>
-  <si>
-    <t>19西基投MTN001</t>
+    <t>20广州城投MTN003</t>
+  </si>
+  <si>
+    <t>20广州城投MTN004</t>
+  </si>
+  <si>
+    <t>18陕煤化MTN006</t>
+  </si>
+  <si>
+    <t>13赣州发展MTN001</t>
+  </si>
+  <si>
+    <t>20甬开投MTN005</t>
+  </si>
+  <si>
+    <t>20招商蛇口MTN003</t>
+  </si>
+  <si>
+    <t>19首钢MTN001</t>
+  </si>
+  <si>
+    <t>19蓉城轨交GN001</t>
+  </si>
+  <si>
+    <t>19汇金MTN004</t>
+  </si>
+  <si>
+    <t>19苏州国际MTN001</t>
+  </si>
+  <si>
+    <t>19华能集MTN001B</t>
+  </si>
+  <si>
+    <t>19陕煤化MTN001</t>
+  </si>
+  <si>
+    <t>19紫金矿业MTN003</t>
+  </si>
+  <si>
+    <t>19京国资MTN002</t>
+  </si>
+  <si>
+    <t>19中铝集MTN007</t>
+  </si>
+  <si>
+    <t>19中石油MTN005</t>
   </si>
   <si>
     <t>19中石油MTN006</t>
   </si>
   <si>
-    <t>19南京国投MTN001</t>
-  </si>
-  <si>
-    <t>19大横琴MTN001</t>
-  </si>
-  <si>
-    <t>20杭金投MTN001</t>
-  </si>
-  <si>
-    <t>20汇金MTN002</t>
-  </si>
-  <si>
-    <t>20陕煤化MTN001</t>
-  </si>
-  <si>
-    <t>20青岛国信MTN001</t>
-  </si>
-  <si>
-    <t>20朝阳国资MTN001</t>
-  </si>
-  <si>
-    <t>20闽投MTN002</t>
-  </si>
-  <si>
-    <t>20紫金矿业MTN001</t>
-  </si>
-  <si>
-    <t>20青岛国信MTN002</t>
-  </si>
-  <si>
-    <t>20南京地铁GN001</t>
+    <t>19陕煤化MTN006</t>
+  </si>
+  <si>
+    <t>20陕有色MTN001</t>
+  </si>
+  <si>
+    <t>20成交投MTN001</t>
+  </si>
+  <si>
+    <t>20闽投MTN003A</t>
   </si>
   <si>
     <t>20京国资MTN001</t>
   </si>
   <si>
-    <t>20南电MTN005</t>
+    <t>20汇金MTN004</t>
+  </si>
+  <si>
+    <t>20中石油MTN002</t>
   </si>
   <si>
     <t>20中石油MTN003</t>
   </si>
   <si>
-    <t>20中石油MTN002</t>
-  </si>
-  <si>
-    <t>20青岛国信MTN004</t>
-  </si>
-  <si>
-    <t>20鄂联投MTN003</t>
-  </si>
-  <si>
-    <t>20青岛城投MTN003</t>
-  </si>
-  <si>
-    <t>20浙能源MTN002</t>
-  </si>
-  <si>
-    <t>20南电MTN007</t>
-  </si>
-  <si>
-    <t>20陕投集团MTN003</t>
-  </si>
-  <si>
-    <t>20北京国资MTN001</t>
-  </si>
-  <si>
-    <t>20深能源MTN002</t>
-  </si>
-  <si>
-    <t>20川铁投MTN008</t>
-  </si>
-  <si>
-    <t>3.20</t>
+    <t>20西安高新MTN002</t>
+  </si>
+  <si>
+    <t>20苏国信MTN006</t>
+  </si>
+  <si>
+    <t>20西安高新MTN003</t>
+  </si>
+  <si>
+    <t>20西安高新MTN004</t>
+  </si>
+  <si>
+    <t>20通用MTN001B</t>
+  </si>
+  <si>
+    <t>20陕煤化MTN002</t>
+  </si>
+  <si>
+    <t>20闽能源MTN001</t>
+  </si>
+  <si>
+    <t>20南电MTN008</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.30行权</t>
+  </si>
+  <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>4.08</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.11</t>
   </si>
   <si>
     <t>3.18</t>
   </si>
   <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
     <t>3.24</t>
   </si>
   <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.245</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
     <t>3.74</t>
   </si>
   <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.70行权</t>
+  </si>
+  <si>
     <t>3.29</t>
   </si>
   <si>
-    <t>2.98</t>
-  </si>
-  <si>
-    <t>2.97</t>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>3.62行权</t>
+  </si>
+  <si>
+    <t>3.52行权</t>
+  </si>
+  <si>
+    <t>3.71行权</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.53行权</t>
+  </si>
+  <si>
+    <t>3.65行权</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>4.52</t>
   </si>
   <si>
     <t>4.07</t>
   </si>
   <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>3.10行权</t>
-  </si>
-  <si>
-    <t>3.07</t>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>4.51</t>
   </si>
   <si>
     <t>4.12</t>
   </si>
   <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.27行权</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>3.32</t>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>3.73</t>
   </si>
   <si>
     <t>4.46</t>
   </si>
   <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>4.02</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.835</t>
-  </si>
-  <si>
-    <t>3.825</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>3.85行权</t>
-  </si>
-  <si>
-    <t>3.74行权</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>3.94</t>
+    <t>3.87</t>
   </si>
   <si>
     <t>4.65</t>
   </si>
   <si>
-    <t>4.78</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.81</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>3.91</t>
-  </si>
-  <si>
-    <t>4.39</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.555</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>3.635</t>
-  </si>
-  <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>3.605</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>4.42</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>AA/AAA</t>
+  </si>
+  <si>
+    <t>AA+/AAA</t>
   </si>
   <si>
     <t>AAA/AA+</t>
@@ -1547,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,16 +1581,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2">
-        <v>0.002191780821917808</v>
+        <v>0.8383561643835616</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1595,19 +1598,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F3">
-        <v>0.002191780821917808</v>
+        <v>0.852054794520548</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1615,19 +1618,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F4">
-        <v>0.002191780821917808</v>
+        <v>0.8931506849315068</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1635,19 +1638,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5">
-        <v>0.8082191780821918</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1655,19 +1658,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F6">
-        <v>0.8246575342465754</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1678,16 +1681,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F7">
-        <v>0.8328767123287671</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1698,16 +1701,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F8">
-        <v>0.8356164383561644</v>
+        <v>0.9342465753424658</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1718,16 +1721,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F9">
-        <v>0.8410958904109589</v>
+        <v>0.9342465753424658</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1738,16 +1741,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F10">
-        <v>0.8438356164383561</v>
+        <v>0.947945205479452</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1758,16 +1761,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F11">
-        <v>0.863013698630137</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1778,16 +1781,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F12">
-        <v>0.8821917808219178</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1795,19 +1798,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F13">
-        <v>0.8821917808219178</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1815,19 +1818,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F14">
-        <v>0.8821917808219178</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1835,19 +1838,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F15">
-        <v>0.9205479452054794</v>
+        <v>1.07013698630137</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1855,19 +1858,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F16">
-        <v>0.9205479452054794</v>
+        <v>1.07013698630137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1875,19 +1878,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F17">
-        <v>0.9205479452054794</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1895,19 +1898,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E18" t="s">
         <v>390</v>
       </c>
       <c r="F18">
-        <v>0.9205479452054794</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1915,19 +1918,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F19">
-        <v>0.9205479452054794</v>
+        <v>1.14986301369863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1935,19 +1938,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F20">
-        <v>1.02</v>
+        <v>1.14986301369863</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1955,19 +1958,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F21">
-        <v>1.02</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1975,19 +1978,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F22">
-        <v>1.04986301369863</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1995,19 +1998,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F23">
-        <v>1.04986301369863</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2015,19 +2018,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F24">
-        <v>1.04986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2035,19 +2038,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F25">
-        <v>1.04986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2055,19 +2058,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F26">
-        <v>1.12986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2075,19 +2078,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F27">
-        <v>1.12986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2095,19 +2098,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F28">
-        <v>1.12986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2115,19 +2118,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F29">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2135,16 +2138,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30">
         <v>1.2</v>
@@ -2155,16 +2158,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -2175,16 +2178,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F32">
         <v>1.2</v>
@@ -2195,16 +2198,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F33">
         <v>1.2</v>
@@ -2215,19 +2218,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F34">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2238,16 +2241,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F35">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2255,19 +2258,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F36">
-        <v>1.27013698630137</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2275,19 +2278,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F37">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2295,19 +2298,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F38">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2315,19 +2318,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F39">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2335,19 +2338,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F40">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2355,19 +2358,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F41">
-        <v>1.38986301369863</v>
+        <v>1.33013698630137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2375,19 +2378,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F42">
-        <v>1.40986301369863</v>
+        <v>1.37013698630137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2395,19 +2398,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F43">
-        <v>1.42986301369863</v>
+        <v>1.37013698630137</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2418,16 +2421,16 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F44">
-        <v>1.44986301369863</v>
+        <v>1.37013698630137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2435,19 +2438,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F45">
-        <v>1.44986301369863</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2455,19 +2458,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F46">
-        <v>1.46</v>
+        <v>1.40986301369863</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2475,19 +2478,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E47" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F47">
-        <v>1.49013698630137</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2495,16 +2498,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="E48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F48">
         <v>1.50986301369863</v>
@@ -2515,19 +2518,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F49">
-        <v>1.52</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2535,19 +2538,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F50">
-        <v>1.52</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2558,16 +2561,16 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F51">
-        <v>1.54</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2578,16 +2581,16 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F52">
-        <v>1.54</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2595,19 +2598,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F53">
-        <v>1.55013698630137</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2618,13 +2621,13 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F54">
         <v>1.55013698630137</v>
@@ -2635,16 +2638,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F55">
         <v>1.55013698630137</v>
@@ -2655,19 +2658,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F56">
-        <v>1.55013698630137</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2675,19 +2678,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F57">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2695,19 +2698,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F58">
-        <v>1.57013698630137</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2715,19 +2718,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E59" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F59">
-        <v>1.59013698630137</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2735,19 +2738,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F60">
-        <v>1.59013698630137</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2755,19 +2758,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F61">
-        <v>1.59013698630137</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2775,19 +2778,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F62">
-        <v>1.59013698630137</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2795,19 +2798,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F63">
-        <v>1.59013698630137</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2815,19 +2818,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F64">
-        <v>1.61013698630137</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2835,19 +2838,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E65" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F65">
-        <v>1.61013698630137</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2855,19 +2858,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F66">
-        <v>1.61013698630137</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2875,19 +2878,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F67">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2895,19 +2898,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F68">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2915,19 +2918,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F69">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2935,19 +2938,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F70">
-        <v>1.66986301369863</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2958,16 +2961,16 @@
         <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="E71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F71">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2978,16 +2981,16 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F72">
-        <v>1.72</v>
+        <v>1.79013698630137</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2995,19 +2998,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F73">
-        <v>1.72</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3015,19 +3018,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="E74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F74">
-        <v>1.72</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3035,19 +3038,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F75">
-        <v>1.72</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3055,19 +3058,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="E76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F76">
-        <v>1.76</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3075,19 +3078,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F77">
-        <v>1.78</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3095,19 +3098,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E78" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F78">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3115,19 +3118,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F79">
-        <v>1.8</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3135,19 +3138,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
         <v>331</v>
       </c>
       <c r="E80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F80">
-        <v>1.8</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3155,19 +3158,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F81">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3175,19 +3178,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="E82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F82">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3195,19 +3198,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F83">
-        <v>1.92986301369863</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3215,16 +3218,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F84">
         <v>1.92986301369863</v>
@@ -3235,19 +3238,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E85" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F85">
-        <v>2.00986301369863</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3255,19 +3258,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F86">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3278,16 +3281,16 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D87" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="E87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F87">
-        <v>2.02986301369863</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3295,19 +3298,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="E88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F88">
-        <v>2.02986301369863</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3315,19 +3318,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F89">
-        <v>2.02986301369863</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3335,19 +3338,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F90">
-        <v>2.02986301369863</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3358,16 +3361,16 @@
         <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F91">
-        <v>2.08</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3375,19 +3378,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F92">
-        <v>2.12</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3395,19 +3398,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D93" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E93" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F93">
-        <v>2.16986301369863</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3415,19 +3418,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F94">
-        <v>2.16986301369863</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3435,19 +3438,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E95" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F95">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3455,19 +3458,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D96" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F96">
-        <v>2.18</v>
+        <v>2.00986301369863</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3475,19 +3478,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F97">
-        <v>2.18</v>
+        <v>2.00986301369863</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3498,16 +3501,16 @@
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D98" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="E98" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F98">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3515,19 +3518,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E99" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F99">
-        <v>2.19013698630137</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3535,19 +3538,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="E100" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F100">
-        <v>2.23013698630137</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3558,16 +3561,16 @@
         <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D101" t="s">
         <v>336</v>
       </c>
       <c r="E101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F101">
-        <v>2.23013698630137</v>
+        <v>2.10986301369863</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3575,19 +3578,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F102">
-        <v>2.24</v>
+        <v>2.10986301369863</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3595,19 +3598,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D103" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F103">
-        <v>2.26</v>
+        <v>2.10986301369863</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3615,19 +3618,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D104" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E104" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F104">
-        <v>2.26986301369863</v>
+        <v>2.10986301369863</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3635,19 +3638,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D105" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E105" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F105">
-        <v>2.26986301369863</v>
+        <v>2.10986301369863</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3655,19 +3658,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D106" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E106" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F106">
-        <v>2.26986301369863</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3675,19 +3678,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E107" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F107">
-        <v>2.26986301369863</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3695,19 +3698,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D108" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="E108" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F108">
-        <v>2.26986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3715,19 +3718,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D109" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="E109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F109">
-        <v>2.26986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3735,19 +3738,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F110">
-        <v>2.26986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3755,19 +3758,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="E111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F111">
-        <v>2.26986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3775,19 +3778,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D112" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="E112" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F112">
-        <v>2.28</v>
+        <v>2.15013698630137</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3795,19 +3798,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D113" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="E113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F113">
-        <v>2.28</v>
+        <v>2.15013698630137</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3815,19 +3818,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D114" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="E114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F114">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3838,16 +3841,16 @@
         <v>69</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D115" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E115" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F115">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3858,16 +3861,16 @@
         <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D116" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F116">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3875,19 +3878,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D117" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="E117" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F117">
-        <v>2.29013698630137</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3895,19 +3898,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C118" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="E118" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F118">
-        <v>2.29013698630137</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3915,19 +3918,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E119" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F119">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3935,19 +3938,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D120" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F120">
-        <v>2.30986301369863</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3955,19 +3958,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F121">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3975,19 +3978,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E122" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F122">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3995,19 +3998,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D123" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F123">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4015,19 +4018,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D124" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="E124" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F124">
-        <v>2.32</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4035,19 +4038,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="E125" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F125">
-        <v>2.32</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4055,19 +4058,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D126" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="E126" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F126">
-        <v>2.32</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4075,19 +4078,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D127" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F127">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4095,19 +4098,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="E128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F128">
-        <v>2.32</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4118,16 +4121,16 @@
         <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D129" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E129" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F129">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4138,16 +4141,16 @@
         <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="E130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F130">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4158,16 +4161,16 @@
         <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="E131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F131">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4175,19 +4178,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C132" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F132">
-        <v>2.38</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4195,19 +4198,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D133" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E133" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F133">
-        <v>2.38</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4215,19 +4218,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D134" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F134">
-        <v>2.38</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4238,16 +4241,16 @@
         <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D135" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F135">
-        <v>2.39013698630137</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4258,16 +4261,16 @@
         <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F136">
-        <v>2.39013698630137</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4275,19 +4278,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F137">
-        <v>2.41013698630137</v>
+        <v>2.24986301369863</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4295,19 +4298,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D138" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E138" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F138">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4315,19 +4318,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D139" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E139" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F139">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4335,19 +4338,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F140">
-        <v>2.45013698630137</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4355,19 +4358,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D141" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E141" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F141">
-        <v>2.45013698630137</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4375,19 +4378,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C142" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D142" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E142" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F142">
-        <v>2.45013698630137</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4398,16 +4401,16 @@
         <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D143" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E143" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F143">
-        <v>2.45013698630137</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4415,19 +4418,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D144" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E144" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F144">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4435,19 +4438,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D145" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E145" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F145">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4455,19 +4458,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D146" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F146">
-        <v>2.54</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4478,16 +4481,16 @@
         <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D147" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F147">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4498,16 +4501,16 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E148" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F148">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4518,16 +4521,16 @@
         <v>81</v>
       </c>
       <c r="C149" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D149" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="E149" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F149">
-        <v>2.58</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4538,16 +4541,16 @@
         <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D150" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="E150" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F150">
-        <v>2.58</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4558,16 +4561,16 @@
         <v>81</v>
       </c>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D151" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="E151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F151">
-        <v>2.58</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4575,19 +4578,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E152" t="s">
         <v>390</v>
       </c>
       <c r="F152">
-        <v>2.6</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4595,19 +4598,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C153" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E153" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F153">
-        <v>2.6</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4621,13 +4624,13 @@
         <v>226</v>
       </c>
       <c r="D154" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E154" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F154">
-        <v>2.6</v>
+        <v>2.35013698630137</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4635,19 +4638,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D155" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E155" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F155">
-        <v>2.6</v>
+        <v>2.37013698630137</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4661,13 +4664,13 @@
         <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="E156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F156">
-        <v>2.60986301369863</v>
+        <v>2.37013698630137</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4675,19 +4678,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="E157" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F157">
-        <v>2.60986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4695,19 +4698,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C158" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D158" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="E158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F158">
-        <v>2.60986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4715,19 +4718,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D159" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="E159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F159">
-        <v>2.60986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4735,19 +4738,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D160" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="E160" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F160">
-        <v>2.60986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4761,13 +4764,13 @@
         <v>228</v>
       </c>
       <c r="D161" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E161" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F161">
-        <v>2.62</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4775,19 +4778,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C162" t="s">
         <v>229</v>
       </c>
       <c r="D162" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="E162" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F162">
-        <v>2.62</v>
+        <v>2.43013698630137</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4795,19 +4798,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
         <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E163" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F163">
-        <v>2.62986301369863</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4815,19 +4818,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C164" t="s">
         <v>231</v>
       </c>
       <c r="D164" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E164" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F164">
-        <v>2.66986301369863</v>
+        <v>2.45013698630137</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4835,19 +4838,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C165" t="s">
         <v>232</v>
       </c>
       <c r="D165" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E165" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F165">
-        <v>2.7</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4858,16 +4861,16 @@
         <v>88</v>
       </c>
       <c r="C166" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D166" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E166" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F166">
-        <v>2.7</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4875,19 +4878,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
       </c>
       <c r="D167" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E167" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F167">
-        <v>2.7</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4895,19 +4898,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
       </c>
       <c r="D168" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E168" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F168">
-        <v>2.7</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4915,19 +4918,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D169" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F169">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4935,19 +4938,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D170" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F170">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4955,19 +4958,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D171" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E171" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F171">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4975,19 +4978,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D172" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F172">
-        <v>2.72</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4995,19 +4998,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D173" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E173" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F173">
-        <v>2.73013698630137</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5015,19 +5018,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D174" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="E174" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F174">
-        <v>2.73013698630137</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5035,19 +5038,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D175" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E175" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F175">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5055,19 +5058,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="E176" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F176">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5075,19 +5078,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C177" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D177" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="E177" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F177">
-        <v>2.82</v>
+        <v>2.62986301369863</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5095,19 +5098,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C178" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D178" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="E178" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F178">
-        <v>2.83013698630137</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5115,19 +5118,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D179" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="E179" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F179">
-        <v>2.83013698630137</v>
+        <v>2.69013698630137</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5135,19 +5138,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E180" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F180">
-        <v>2.83013698630137</v>
+        <v>2.69013698630137</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5155,19 +5158,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C181" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D181" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E181" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F181">
-        <v>2.86</v>
+        <v>2.69013698630137</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5175,19 +5178,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C182" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D182" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E182" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F182">
-        <v>2.86</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5195,19 +5198,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C183" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D183" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E183" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F183">
-        <v>2.86986301369863</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5215,19 +5218,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D184" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="E184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F184">
-        <v>2.89013698630137</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5235,19 +5238,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C185" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D185" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="E185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F185">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5255,19 +5258,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C186" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D186" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="E186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F186">
-        <v>2.91013698630137</v>
+        <v>2.86986301369863</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5275,19 +5278,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C187" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D187" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E187" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F187">
-        <v>2.92</v>
+        <v>2.89013698630137</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5295,16 +5298,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D188" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F188">
         <v>2.92</v>
@@ -5315,19 +5318,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C189" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D189" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E189" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F189">
-        <v>2.92</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5335,19 +5338,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C190" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D190" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E190" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F190">
-        <v>2.92</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5355,19 +5358,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C191" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D191" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F191">
-        <v>2.92</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5375,19 +5378,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C192" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D192" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E192" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F192">
-        <v>2.92</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5395,16 +5398,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C193" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D193" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E193" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F193">
         <v>2.93013698630137</v>
@@ -5415,19 +5418,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D194" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="E194" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F194">
-        <v>3.13013698630137</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5435,19 +5438,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C195" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D195" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="E195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F195">
-        <v>3.15013698630137</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5455,19 +5458,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C196" t="s">
         <v>250</v>
       </c>
       <c r="D196" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="E196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F196">
-        <v>3.18</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5475,19 +5478,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C197" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D197" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="E197" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F197">
-        <v>3.26</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5495,19 +5498,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C198" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D198" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F198">
-        <v>3.3</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5518,16 +5521,16 @@
         <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D199" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E199" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F199">
-        <v>3.3</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5538,16 +5541,16 @@
         <v>105</v>
       </c>
       <c r="C200" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D200" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E200" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F200">
-        <v>3.3</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5555,19 +5558,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C201" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D201" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E201" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F201">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5575,19 +5578,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C202" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D202" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E202" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F202">
-        <v>3.55013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5595,19 +5598,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C203" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D203" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E203" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F203">
-        <v>3.58986301369863</v>
+        <v>3.04986301369863</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5615,19 +5618,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C204" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D204" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E204" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F204">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5635,19 +5638,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C205" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D205" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E205" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F205">
-        <v>3.66</v>
+        <v>3.16986301369863</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5655,19 +5658,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C206" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D206" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="E206" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F206">
-        <v>3.66</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5675,19 +5678,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C207" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D207" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E207" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F207">
-        <v>3.71013698630137</v>
+        <v>3.21013698630137</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5695,19 +5698,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C208" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D208" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E208" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F208">
-        <v>3.71013698630137</v>
+        <v>3.36986301369863</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5715,19 +5718,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C209" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E209" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F209">
-        <v>3.72</v>
+        <v>3.64986301369863</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5735,16 +5738,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C210" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D210" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F210">
         <v>3.72</v>
@@ -5755,19 +5758,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C211" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D211" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="E211" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F211">
-        <v>3.72</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5775,16 +5778,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D212" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="E212" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F212">
         <v>3.78</v>
@@ -5795,19 +5798,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D213" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F213">
-        <v>3.84</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5815,16 +5818,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C214" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D214" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E214" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F214">
         <v>3.89013698630137</v>
@@ -5835,19 +5838,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C215" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D215" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F215">
-        <v>3.9</v>
+        <v>4.00986301369863</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5855,19 +5858,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C216" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D216" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E216" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F216">
-        <v>3.9</v>
+        <v>4.00986301369863</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5875,19 +5878,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C217" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D217" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E217" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F217">
-        <v>3.9</v>
+        <v>4.00986301369863</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5895,16 +5898,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C218" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D218" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E218" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F218">
         <v>4.00986301369863</v>
@@ -5915,19 +5918,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C219" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D219" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="E219" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F219">
-        <v>4.02</v>
+        <v>4.03013698630137</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5935,19 +5938,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C220" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D220" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="E220" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F220">
-        <v>4.02</v>
+        <v>4.13013698630137</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5955,19 +5958,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D221" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="E221" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F221">
-        <v>4.03013698630137</v>
+        <v>4.15013698630137</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5975,19 +5978,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C222" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D222" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="E222" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F222">
-        <v>4.04986301369863</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5995,19 +5998,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C223" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D223" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E223" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F223">
-        <v>4.11013698630137</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6015,19 +6018,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C224" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D224" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F224">
-        <v>4.13013698630137</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6035,19 +6038,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C225" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D225" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="E225" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F225">
-        <v>4.14</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6055,19 +6058,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C226" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D226" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E226" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F226">
-        <v>4.14</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6075,19 +6078,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D227" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="E227" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F227">
-        <v>4.14</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6098,16 +6101,16 @@
         <v>123</v>
       </c>
       <c r="C228" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D228" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="E228" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F228">
-        <v>4.15013698630137</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6115,19 +6118,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C229" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D229" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E229" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F229">
-        <v>4.16986301369863</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6135,16 +6138,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C230" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D230" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="E230" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F230">
         <v>4.21013698630137</v>
@@ -6155,19 +6158,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C231" t="s">
         <v>276</v>
       </c>
       <c r="D231" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="E231" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F231">
-        <v>4.21013698630137</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6175,19 +6178,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C232" t="s">
         <v>276</v>
       </c>
       <c r="D232" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="E232" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F232">
-        <v>4.21013698630137</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6198,16 +6201,16 @@
         <v>125</v>
       </c>
       <c r="C233" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D233" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E233" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F233">
-        <v>4.21013698630137</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6215,19 +6218,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C234" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D234" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="E234" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F234">
-        <v>4.21013698630137</v>
+        <v>4.28986301369863</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6235,19 +6238,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C235" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D235" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="E235" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F235">
-        <v>4.21013698630137</v>
+        <v>4.28986301369863</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6255,19 +6258,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C236" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E236" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F236">
-        <v>4.21013698630137</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6275,19 +6278,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C237" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D237" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E237" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F237">
-        <v>4.21013698630137</v>
+        <v>4.34986301369863</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6295,19 +6298,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C238" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D238" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="E238" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F238">
-        <v>4.239999999999999</v>
+        <v>4.36986301369863</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6315,279 +6318,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C239" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D239" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="E239" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F239">
-        <v>4.260000000000001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>128</v>
-      </c>
-      <c r="C240" t="s">
-        <v>280</v>
-      </c>
-      <c r="D240" t="s">
-        <v>385</v>
-      </c>
-      <c r="E240" t="s">
-        <v>390</v>
-      </c>
-      <c r="F240">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>129</v>
-      </c>
-      <c r="C241" t="s">
-        <v>281</v>
-      </c>
-      <c r="D241" t="s">
-        <v>378</v>
-      </c>
-      <c r="E241" t="s">
-        <v>390</v>
-      </c>
-      <c r="F241">
-        <v>4.28986301369863</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>130</v>
-      </c>
-      <c r="C242" t="s">
-        <v>282</v>
-      </c>
-      <c r="D242" t="s">
-        <v>384</v>
-      </c>
-      <c r="E242" t="s">
-        <v>390</v>
-      </c>
-      <c r="F242">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>131</v>
-      </c>
-      <c r="C243" t="s">
-        <v>283</v>
-      </c>
-      <c r="D243" t="s">
-        <v>387</v>
-      </c>
-      <c r="E243" t="s">
-        <v>390</v>
-      </c>
-      <c r="F243">
-        <v>4.30986301369863</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>131</v>
-      </c>
-      <c r="C244" t="s">
-        <v>283</v>
-      </c>
-      <c r="D244" t="s">
-        <v>387</v>
-      </c>
-      <c r="E244" t="s">
-        <v>390</v>
-      </c>
-      <c r="F244">
-        <v>4.30986301369863</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>131</v>
-      </c>
-      <c r="C245" t="s">
-        <v>283</v>
-      </c>
-      <c r="D245" t="s">
-        <v>387</v>
-      </c>
-      <c r="E245" t="s">
-        <v>390</v>
-      </c>
-      <c r="F245">
-        <v>4.30986301369863</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>132</v>
-      </c>
-      <c r="C246" t="s">
-        <v>284</v>
-      </c>
-      <c r="D246" t="s">
-        <v>388</v>
-      </c>
-      <c r="E246" t="s">
-        <v>390</v>
-      </c>
-      <c r="F246">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>132</v>
-      </c>
-      <c r="C247" t="s">
-        <v>284</v>
-      </c>
-      <c r="D247" t="s">
-        <v>388</v>
-      </c>
-      <c r="E247" t="s">
-        <v>390</v>
-      </c>
-      <c r="F247">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>132</v>
-      </c>
-      <c r="C248" t="s">
-        <v>284</v>
-      </c>
-      <c r="D248" t="s">
-        <v>388</v>
-      </c>
-      <c r="E248" t="s">
-        <v>390</v>
-      </c>
-      <c r="F248">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>133</v>
-      </c>
-      <c r="C249" t="s">
-        <v>285</v>
-      </c>
-      <c r="D249" t="s">
-        <v>388</v>
-      </c>
-      <c r="E249" t="s">
-        <v>390</v>
-      </c>
-      <c r="F249">
-        <v>4.84986301369863</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>133</v>
-      </c>
-      <c r="C250" t="s">
-        <v>285</v>
-      </c>
-      <c r="D250" t="s">
-        <v>388</v>
-      </c>
-      <c r="E250" t="s">
-        <v>390</v>
-      </c>
-      <c r="F250">
-        <v>4.84986301369863</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" t="s">
-        <v>286</v>
-      </c>
-      <c r="D251" t="s">
-        <v>389</v>
-      </c>
-      <c r="E251" t="s">
-        <v>390</v>
-      </c>
-      <c r="F251">
-        <v>4.95013698630137</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" t="s">
-        <v>286</v>
-      </c>
-      <c r="D252" t="s">
-        <v>389</v>
-      </c>
-      <c r="E252" t="s">
-        <v>390</v>
-      </c>
-      <c r="F252">
-        <v>4.95013698630137</v>
+        <v>4.38986301369863</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/中票.xlsx
+++ b/data/BondDeal/中票.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="392">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,79 +31,67 @@
     <t>year</t>
   </si>
   <si>
-    <t>306D</t>
-  </si>
-  <si>
-    <t>311D(休2)</t>
-  </si>
-  <si>
-    <t>326D+2Y</t>
-  </si>
-  <si>
-    <t>340D(休1)</t>
-  </si>
-  <si>
-    <t>341D</t>
-  </si>
-  <si>
-    <t>341D+NY</t>
-  </si>
-  <si>
-    <t>346D(休2)</t>
-  </si>
-  <si>
-    <t>347D+N</t>
-  </si>
-  <si>
-    <t>355D+NY</t>
-  </si>
-  <si>
-    <t>1.02Y+2Y</t>
-  </si>
-  <si>
-    <t>1.04Y</t>
-  </si>
-  <si>
-    <t>1.07Y</t>
+    <t>0.81+10Y</t>
+  </si>
+  <si>
+    <t>295D</t>
+  </si>
+  <si>
+    <t>301D+N</t>
+  </si>
+  <si>
+    <t>304D</t>
+  </si>
+  <si>
+    <t>305D(休2)</t>
+  </si>
+  <si>
+    <t>307D</t>
+  </si>
+  <si>
+    <t>308D+N</t>
+  </si>
+  <si>
+    <t>315D+N</t>
+  </si>
+  <si>
+    <t>322D</t>
+  </si>
+  <si>
+    <t>336D</t>
+  </si>
+  <si>
+    <t>1.02Y</t>
+  </si>
+  <si>
+    <t>1.05Y+2Y</t>
+  </si>
+  <si>
+    <t>1.05Y</t>
   </si>
   <si>
     <t>1.13Y</t>
   </si>
   <si>
-    <t>1.14Y</t>
-  </si>
-  <si>
-    <t>1.15Y</t>
-  </si>
-  <si>
-    <t>1.17Y</t>
-  </si>
-  <si>
-    <t>1.2Y</t>
+    <t>1.18Y+2Y</t>
   </si>
   <si>
     <t>1.2Y+N</t>
   </si>
   <si>
-    <t>1.21Y</t>
-  </si>
-  <si>
     <t>1.22Y</t>
   </si>
   <si>
-    <t>1.24Y</t>
-  </si>
-  <si>
-    <t>1.26Y</t>
+    <t>1.27Y</t>
   </si>
   <si>
     <t>1.28Y</t>
   </si>
   <si>
-    <t>1.33Y</t>
-  </si>
-  <si>
-    <t>1.37Y</t>
+    <t>1.32Y</t>
+  </si>
+  <si>
+    <t>1.34Y</t>
   </si>
   <si>
     <t>1.39Y</t>
@@ -112,91 +100,85 @@
     <t>1.41Y</t>
   </si>
   <si>
-    <t>1.50Y</t>
+    <t>1.43Y</t>
+  </si>
+  <si>
+    <t>1.45Y</t>
+  </si>
+  <si>
+    <t>1.46Y</t>
+  </si>
+  <si>
+    <t>1.49Y</t>
   </si>
   <si>
     <t>1.51Y</t>
   </si>
   <si>
-    <t>1.53Y</t>
-  </si>
-  <si>
-    <t>1.53Y+N</t>
+    <t>1.52Y</t>
+  </si>
+  <si>
+    <t>1.54Y</t>
+  </si>
+  <si>
+    <t>1.54Y+2Y</t>
   </si>
   <si>
     <t>1.55Y</t>
   </si>
   <si>
-    <t>1.55Y+N</t>
-  </si>
-  <si>
     <t>1.56Y</t>
   </si>
   <si>
-    <t>1.58Y</t>
-  </si>
-  <si>
-    <t>1.59Y</t>
-  </si>
-  <si>
-    <t>1.6Y</t>
+    <t>1.57Y</t>
+  </si>
+  <si>
+    <t>1.59Y+2Y</t>
+  </si>
+  <si>
+    <t>1.59Y+N</t>
   </si>
   <si>
     <t>1.61Y</t>
   </si>
   <si>
+    <t>1.61Y+N</t>
+  </si>
+  <si>
     <t>1.62Y</t>
   </si>
   <si>
+    <t>1.66Y</t>
+  </si>
+  <si>
     <t>1.66Y+N</t>
   </si>
   <si>
+    <t>1.67Y</t>
+  </si>
+  <si>
+    <t>1.7Y</t>
+  </si>
+  <si>
     <t>1.72Y</t>
   </si>
   <si>
-    <t>1.72Y+N</t>
+    <t>1.76Y</t>
   </si>
   <si>
     <t>1.78Y</t>
   </si>
   <si>
-    <t>1.79Y</t>
-  </si>
-  <si>
-    <t>1.85Y+N</t>
-  </si>
-  <si>
-    <t>1.87Y</t>
-  </si>
-  <si>
-    <t>1.87Y+N</t>
-  </si>
-  <si>
-    <t>1.88Y+N</t>
-  </si>
-  <si>
-    <t>1.89Y+2Y</t>
-  </si>
-  <si>
-    <t>1.9Y</t>
-  </si>
-  <si>
-    <t>1.92Y</t>
-  </si>
-  <si>
-    <t>1.93Y+2Y</t>
-  </si>
-  <si>
-    <t>1.94Y+N</t>
-  </si>
-  <si>
-    <t>1.94Y</t>
-  </si>
-  <si>
-    <t>1.95Y+N</t>
-  </si>
-  <si>
-    <t>1.96Y+N</t>
+    <t>1.8Y</t>
+  </si>
+  <si>
+    <t>1.82Y+N</t>
+  </si>
+  <si>
+    <t>1.86Y</t>
+  </si>
+  <si>
+    <t>1.93Y+N</t>
   </si>
   <si>
     <t>2.01Y</t>
@@ -205,51 +187,42 @@
     <t>2.02Y</t>
   </si>
   <si>
-    <t>2.1Y</t>
-  </si>
-  <si>
-    <t>2.11Y+N</t>
-  </si>
-  <si>
-    <t>2.12Y+N</t>
-  </si>
-  <si>
-    <t>2.13Y+N</t>
-  </si>
-  <si>
-    <t>2.15Y+NY</t>
-  </si>
-  <si>
-    <t>2.16Y</t>
+    <t>2.03Y+N</t>
+  </si>
+  <si>
+    <t>2.03Y</t>
+  </si>
+  <si>
+    <t>2.08Y</t>
+  </si>
+  <si>
+    <t>2.12Y+NY</t>
+  </si>
+  <si>
+    <t>2.17Y</t>
   </si>
   <si>
     <t>2.18Y</t>
   </si>
   <si>
-    <t>2.21Y</t>
-  </si>
-  <si>
-    <t>2.22Y+N</t>
+    <t>2.19Y</t>
   </si>
   <si>
     <t>2.23Y</t>
   </si>
   <si>
-    <t>2.24Y+2Y</t>
-  </si>
-  <si>
     <t>2.24Y</t>
   </si>
   <si>
-    <t>2.25Y</t>
-  </si>
-  <si>
     <t>2.26Y</t>
   </si>
   <si>
     <t>2.27Y</t>
   </si>
   <si>
+    <t>2.27Y+N</t>
+  </si>
+  <si>
     <t>2.28Y</t>
   </si>
   <si>
@@ -262,58 +235,67 @@
     <t>2.31Y</t>
   </si>
   <si>
-    <t>2.35Y</t>
-  </si>
-  <si>
-    <t>2.37Y+N</t>
+    <t>2.32Y</t>
+  </si>
+  <si>
+    <t>2.38Y</t>
   </si>
   <si>
     <t>2.39Y</t>
   </si>
   <si>
-    <t>2.43Y</t>
-  </si>
-  <si>
-    <t>2.44Y</t>
-  </si>
-  <si>
-    <t>2.45Y+N</t>
-  </si>
-  <si>
-    <t>2.55Y</t>
-  </si>
-  <si>
-    <t>2.56Y</t>
-  </si>
-  <si>
-    <t>2.60Y</t>
+    <t>2.41Y</t>
+  </si>
+  <si>
+    <t>2.42Y</t>
+  </si>
+  <si>
+    <t>2.45Y</t>
+  </si>
+  <si>
+    <t>2.52Y</t>
+  </si>
+  <si>
+    <t>2.54Y</t>
+  </si>
+  <si>
+    <t>2.58Y</t>
+  </si>
+  <si>
+    <t>2.6Y</t>
   </si>
   <si>
     <t>2.61Y</t>
   </si>
   <si>
-    <t>2.62Y+N</t>
-  </si>
-  <si>
     <t>2.62Y</t>
   </si>
   <si>
     <t>2.63Y</t>
   </si>
   <si>
-    <t>2.66Y+N</t>
-  </si>
-  <si>
-    <t>2.69Y</t>
-  </si>
-  <si>
-    <t>2.69Y+N</t>
-  </si>
-  <si>
-    <t>2.71Y</t>
-  </si>
-  <si>
-    <t>2.81Y+N</t>
+    <t>2.67Y</t>
+  </si>
+  <si>
+    <t>2.7Y</t>
+  </si>
+  <si>
+    <t>2.70Y</t>
+  </si>
+  <si>
+    <t>2.72Y</t>
+  </si>
+  <si>
+    <t>2.73Y</t>
+  </si>
+  <si>
+    <t>2.78Y</t>
+  </si>
+  <si>
+    <t>2.82Y</t>
+  </si>
+  <si>
+    <t>2.83Y</t>
   </si>
   <si>
     <t>2.86Y</t>
@@ -325,40 +307,46 @@
     <t>2.89Y+2Y</t>
   </si>
   <si>
+    <t>2.9Y</t>
+  </si>
+  <si>
+    <t>2.91Y</t>
+  </si>
+  <si>
     <t>2.92Y+2Y</t>
   </si>
   <si>
     <t>2.93Y+2Y</t>
   </si>
   <si>
-    <t>2.93Y</t>
-  </si>
-  <si>
-    <t>2.94Y+N</t>
-  </si>
-  <si>
-    <t>2.95Y</t>
-  </si>
-  <si>
-    <t>3.05Y</t>
-  </si>
-  <si>
-    <t>3.16Y</t>
-  </si>
-  <si>
-    <t>3.17Y</t>
-  </si>
-  <si>
-    <t>3.2Y</t>
-  </si>
-  <si>
-    <t>3.21Y+N</t>
-  </si>
-  <si>
-    <t>3.37Y</t>
-  </si>
-  <si>
-    <t>3.65Y</t>
+    <t>3.13Y</t>
+  </si>
+  <si>
+    <t>3.15Y</t>
+  </si>
+  <si>
+    <t>3.18Y</t>
+  </si>
+  <si>
+    <t>3.26Y</t>
+  </si>
+  <si>
+    <t>3.30Y+N</t>
+  </si>
+  <si>
+    <t>3.55Y</t>
+  </si>
+  <si>
+    <t>3.59Y+N</t>
+  </si>
+  <si>
+    <t>3.62Y</t>
+  </si>
+  <si>
+    <t>3.66Y</t>
+  </si>
+  <si>
+    <t>3.71Y</t>
   </si>
   <si>
     <t>3.72Y</t>
@@ -367,28 +355,49 @@
     <t>3.78Y</t>
   </si>
   <si>
+    <t>3.84Y</t>
+  </si>
+  <si>
     <t>3.89Y</t>
   </si>
   <si>
+    <t>3.90Y</t>
+  </si>
+  <si>
     <t>4.01Y</t>
   </si>
   <si>
+    <t>4.02Y</t>
+  </si>
+  <si>
     <t>4.03Y</t>
   </si>
   <si>
+    <t>4.05Y</t>
+  </si>
+  <si>
+    <t>4.11Y</t>
+  </si>
+  <si>
     <t>4.13Y</t>
   </si>
   <si>
+    <t>4.14Y</t>
+  </si>
+  <si>
     <t>4.15Y</t>
   </si>
   <si>
-    <t>4.18Y</t>
+    <t>4.17Y</t>
   </si>
   <si>
     <t>4.21Y</t>
   </si>
   <si>
-    <t>4.22Y</t>
+    <t>4.24Y</t>
+  </si>
+  <si>
+    <t>4.26Y</t>
   </si>
   <si>
     <t>4.28Y</t>
@@ -397,166 +406,178 @@
     <t>4.29Y</t>
   </si>
   <si>
-    <t>4.34Y</t>
-  </si>
-  <si>
-    <t>4.35Y</t>
-  </si>
-  <si>
-    <t>4.37Y</t>
-  </si>
-  <si>
-    <t>4.39Y</t>
+    <t>4.3Y</t>
+  </si>
+  <si>
+    <t>4.31Y</t>
+  </si>
+  <si>
+    <t>4.46Y</t>
+  </si>
+  <si>
+    <t>4.85Y</t>
+  </si>
+  <si>
+    <t>4.95Y</t>
+  </si>
+  <si>
+    <t>16武汉地铁GN002</t>
+  </si>
+  <si>
+    <t>16兴城投资MTN001</t>
+  </si>
+  <si>
+    <t>16北控水务GN001</t>
+  </si>
+  <si>
+    <t>18中粮地产MTN003</t>
+  </si>
+  <si>
+    <t>14三峡MTN002</t>
   </si>
   <si>
     <t>18汇金MTN014</t>
   </si>
   <si>
-    <t>18湘高速MTN002</t>
-  </si>
-  <si>
-    <t>18兴蓉环境MTN001</t>
-  </si>
-  <si>
-    <t>18淮北矿MTN002</t>
-  </si>
-  <si>
-    <t>18华发集团MTN001</t>
-  </si>
-  <si>
-    <t>18中铁股MTN002A</t>
-  </si>
-  <si>
-    <t>18信达投资MTN001</t>
-  </si>
-  <si>
-    <t>18中铁股MTN003A</t>
-  </si>
-  <si>
-    <t>18大唐集MTN003</t>
-  </si>
-  <si>
-    <t>19中石油MTN002</t>
-  </si>
-  <si>
-    <t>19中交投MTN001</t>
-  </si>
-  <si>
-    <t>19苏国信MTN001</t>
+    <t>18南昌城投MTN002</t>
+  </si>
+  <si>
+    <t>16绍兴城投MTN001</t>
+  </si>
+  <si>
+    <t>18豫高管MTN005</t>
+  </si>
+  <si>
+    <t>18朝阳国资MTN002</t>
+  </si>
+  <si>
+    <t>18平安租赁MTN001</t>
+  </si>
+  <si>
+    <t>16南京安居MTN001</t>
+  </si>
+  <si>
+    <t>18光大集团MTN002</t>
+  </si>
+  <si>
+    <t>19南电MTN001</t>
+  </si>
+  <si>
+    <t>19中油股MTN001</t>
+  </si>
+  <si>
+    <t>19中电信MTN001</t>
+  </si>
+  <si>
+    <t>19深圳特发MTN001</t>
   </si>
   <si>
     <t>19鞍钢集MTN001</t>
   </si>
   <si>
-    <t>19乳山国运MTN001</t>
-  </si>
-  <si>
-    <t>19淮北矿MTN001</t>
-  </si>
-  <si>
-    <t>19格力MTN001</t>
-  </si>
-  <si>
-    <t>19北京国资MTN001</t>
+    <t>19沪临港MTN001</t>
   </si>
   <si>
     <t>17川铁投MTN001</t>
   </si>
   <si>
-    <t>17首钢MTN002</t>
-  </si>
-  <si>
-    <t>19闽冶金MTN001</t>
-  </si>
-  <si>
-    <t>19南电MTN004</t>
-  </si>
-  <si>
-    <t>19豫高管MTN001</t>
-  </si>
-  <si>
     <t>19中化工MTN001</t>
   </si>
   <si>
-    <t>19宝钢MTN003</t>
-  </si>
-  <si>
-    <t>19北京国资MTN002</t>
-  </si>
-  <si>
-    <t>19外高桥MTN001</t>
-  </si>
-  <si>
-    <t>17中节能MTN001</t>
-  </si>
-  <si>
-    <t>19苏交通MTN002</t>
-  </si>
-  <si>
-    <t>15中电投MTN002</t>
+    <t>19甬交投MTN001</t>
+  </si>
+  <si>
+    <t>19高科技投MTN001</t>
+  </si>
+  <si>
+    <t>17中航工MTN001</t>
+  </si>
+  <si>
+    <t>19中建材MTN001</t>
+  </si>
+  <si>
+    <t>19川高速MTN001</t>
   </si>
   <si>
     <t>15闽高速MTN001</t>
   </si>
   <si>
-    <t>19闽能源MTN001</t>
-  </si>
-  <si>
-    <t>19云能投MTN002</t>
-  </si>
-  <si>
-    <t>19上实MTN002</t>
-  </si>
-  <si>
-    <t>19陕延油MTN008</t>
-  </si>
-  <si>
-    <t>17川发展MTN001</t>
-  </si>
-  <si>
-    <t>19华润MTN005</t>
-  </si>
-  <si>
-    <t>17兴城投资MTN001</t>
-  </si>
-  <si>
-    <t>19太不锈MTN001</t>
-  </si>
-  <si>
-    <t>19大唐集MTN001A</t>
+    <t>15闽高速MTN002</t>
+  </si>
+  <si>
+    <t>19深圳水务MTN002</t>
+  </si>
+  <si>
+    <t>19汇金MTN011</t>
+  </si>
+  <si>
+    <t>19南电MTN005</t>
+  </si>
+  <si>
+    <t>19中石油MTN003</t>
+  </si>
+  <si>
+    <t>19中石油MTN004</t>
+  </si>
+  <si>
+    <t>19南方水泥MTN002</t>
+  </si>
+  <si>
+    <t>17华能MTN001</t>
+  </si>
+  <si>
+    <t>19西南水泥MTN002</t>
+  </si>
+  <si>
+    <t>19绍兴交投MTN003</t>
+  </si>
+  <si>
+    <t>19陆家嘴MTN001</t>
+  </si>
+  <si>
+    <t>19越秀集团MTN002</t>
   </si>
   <si>
     <t>19亦庄控股MTN001</t>
   </si>
   <si>
-    <t>19蓝星MTN001</t>
-  </si>
-  <si>
-    <t>19甬交投MTN003</t>
-  </si>
-  <si>
-    <t>19闽能源MTN002</t>
-  </si>
-  <si>
-    <t>19陕延油MTN010</t>
-  </si>
-  <si>
-    <t>17武金控MTN001</t>
-  </si>
-  <si>
-    <t>19中远海发MTN002</t>
-  </si>
-  <si>
-    <t>19南方水泥MTN003</t>
+    <t>19鲁能源MTN001</t>
+  </si>
+  <si>
+    <t>19长电MTN002</t>
+  </si>
+  <si>
+    <t>19陕延油MTN007</t>
+  </si>
+  <si>
+    <t>19外高桥MTN003</t>
+  </si>
+  <si>
+    <t>19陕延油MTN009</t>
+  </si>
+  <si>
+    <t>19华润控股MTN004</t>
+  </si>
+  <si>
+    <t>17武汉地产MTN001</t>
   </si>
   <si>
     <t>19东航MTN001</t>
   </si>
   <si>
-    <t>19陆家嘴MTN002</t>
-  </si>
-  <si>
-    <t>19鄂交投MTN004</t>
+    <t>19中电国际MTN001</t>
+  </si>
+  <si>
+    <t>20无锡建投MTN001</t>
+  </si>
+  <si>
+    <t>19中化工MTN004</t>
+  </si>
+  <si>
+    <t>19汇金MTN015</t>
+  </si>
+  <si>
+    <t>19海运集装MTN002</t>
   </si>
   <si>
     <t>19齐鲁交通MTN001</t>
@@ -565,169 +586,118 @@
     <t>17鲁高速MTN003</t>
   </si>
   <si>
-    <t>19中铝集MTN008</t>
-  </si>
-  <si>
-    <t>19汇金MTN019</t>
-  </si>
-  <si>
-    <t>19沪电力MTN002</t>
-  </si>
-  <si>
-    <t>19中铁股MTN005A</t>
-  </si>
-  <si>
-    <t>20复星高科MTN004</t>
-  </si>
-  <si>
-    <t>19科学城MTN001</t>
-  </si>
-  <si>
-    <t>20深圳地铁MTN003</t>
-  </si>
-  <si>
-    <t>19嘉兴国资MTN001</t>
-  </si>
-  <si>
-    <t>20大唐集MTN005A</t>
-  </si>
-  <si>
-    <t>15苏轨交MTN001</t>
-  </si>
-  <si>
-    <t>19国电MTN005</t>
-  </si>
-  <si>
-    <t>20中电投MTN025</t>
-  </si>
-  <si>
-    <t>20南电MTN001</t>
-  </si>
-  <si>
-    <t>20越秀交通MTN001</t>
-  </si>
-  <si>
-    <t>20中金集MTN001</t>
+    <t>19光明MTN001</t>
+  </si>
+  <si>
+    <t>19汇金MTN017</t>
+  </si>
+  <si>
+    <t>17建发地产MTN002</t>
+  </si>
+  <si>
+    <t>14宿产发MTN001</t>
+  </si>
+  <si>
+    <t>19华能集MTN005A</t>
+  </si>
+  <si>
+    <t>20粤珠江MTN001</t>
   </si>
   <si>
     <t>20汇金MTN001</t>
   </si>
   <si>
-    <t>20南航股MTN001</t>
-  </si>
-  <si>
-    <t>20华电MTN001A</t>
-  </si>
-  <si>
-    <t>20华电股MTN002A</t>
-  </si>
-  <si>
-    <t>20保利发展MTN001</t>
-  </si>
-  <si>
-    <t>20首开MTN001</t>
-  </si>
-  <si>
-    <t>20南电MTN004</t>
-  </si>
-  <si>
-    <t>20深业MTN001</t>
-  </si>
-  <si>
-    <t>20广晟MTN002</t>
-  </si>
-  <si>
-    <t>20金茂投资MTN001</t>
-  </si>
-  <si>
-    <t>20中石油MTN001</t>
-  </si>
-  <si>
-    <t>20中电投MTN004</t>
+    <t>20华电股MTN001A</t>
+  </si>
+  <si>
+    <t>20中建材MTN001</t>
+  </si>
+  <si>
+    <t>20宁夏国资MTN001</t>
+  </si>
+  <si>
+    <t>19河钢集MTN002B</t>
+  </si>
+  <si>
+    <t>18鄂联投MTN002</t>
+  </si>
+  <si>
+    <t>20蓝星MTN001</t>
+  </si>
+  <si>
+    <t>20天成租赁GN001</t>
+  </si>
+  <si>
+    <t>18常城建MTN003</t>
   </si>
   <si>
     <t>20中石化MTN001</t>
   </si>
   <si>
-    <t>20湘高速MTN002</t>
-  </si>
-  <si>
-    <t>18华润置地MTN002B</t>
-  </si>
-  <si>
     <t>20中油股MTN002</t>
   </si>
   <si>
-    <t>20中油股MTN001</t>
-  </si>
-  <si>
-    <t>20国新控股MTN002</t>
-  </si>
-  <si>
-    <t>20中化橡胶MTN001</t>
+    <t>20首农食品MTN002</t>
   </si>
   <si>
     <t>20苏国信MTN005</t>
   </si>
   <si>
-    <t>20张江高科MTN001</t>
-  </si>
-  <si>
-    <t>20鲁能源MTN002A</t>
-  </si>
-  <si>
-    <t>18越秀集团MTN002</t>
-  </si>
-  <si>
-    <t>20苏广播MTN001</t>
-  </si>
-  <si>
-    <t>20中石油MTN004</t>
-  </si>
-  <si>
-    <t>20川高速MTN002</t>
-  </si>
-  <si>
-    <t>20粤电开GN001</t>
-  </si>
-  <si>
-    <t>20宁夏国资MTN002</t>
-  </si>
-  <si>
-    <t>16杭州地铁MTN002</t>
-  </si>
-  <si>
-    <t>20华电MTN004A</t>
+    <t>20国网新源MTN001</t>
+  </si>
+  <si>
+    <t>20中电投MTN006</t>
+  </si>
+  <si>
+    <t>20华侨城MTN002</t>
+  </si>
+  <si>
+    <t>18广州地铁MTN002</t>
+  </si>
+  <si>
+    <t>20汇金MTN005</t>
+  </si>
+  <si>
+    <t>18苏国信MTN002B</t>
+  </si>
+  <si>
+    <t>20蓝星MTN003</t>
+  </si>
+  <si>
+    <t>20中石油MTN005</t>
+  </si>
+  <si>
+    <t>18九龙江MTN001</t>
+  </si>
+  <si>
+    <t>20宝武集团MTN001</t>
   </si>
   <si>
     <t>20中石化MTN003</t>
   </si>
   <si>
-    <t>20成都产投MTN001</t>
-  </si>
-  <si>
-    <t>20深圳地铁MTN001</t>
-  </si>
-  <si>
-    <t>20华能MTN002</t>
-  </si>
-  <si>
-    <t>18渝高新MTN002</t>
-  </si>
-  <si>
-    <t>18越秀金融MTN004</t>
-  </si>
-  <si>
-    <t>18萧山国资MTN002</t>
-  </si>
-  <si>
-    <t>20金地MTN003</t>
-  </si>
-  <si>
-    <t>18中建MTN001</t>
-  </si>
-  <si>
-    <t>20华能MTN003</t>
+    <t>20红狮MTN001</t>
+  </si>
+  <si>
+    <t>18新盛建设MTN003</t>
+  </si>
+  <si>
+    <t>20汇金MTN008A</t>
+  </si>
+  <si>
+    <t>18九龙江MTN003</t>
+  </si>
+  <si>
+    <t>20北京国资MTN002</t>
+  </si>
+  <si>
+    <t>18上饶投资MTN001</t>
+  </si>
+  <si>
+    <t>18金隅MTN003</t>
+  </si>
+  <si>
+    <t>18中建MTN002</t>
   </si>
   <si>
     <t>20汇金MTN009A</t>
@@ -736,460 +706,487 @@
     <t>20招商蛇口MTN002A</t>
   </si>
   <si>
-    <t>20凤凰传媒MTN002</t>
-  </si>
-  <si>
-    <t>20大唐集MTN002</t>
+    <t>18鲁能源MTN001</t>
+  </si>
+  <si>
+    <t>18陕煤化MTN003</t>
+  </si>
+  <si>
+    <t>20广晟MTN004</t>
   </si>
   <si>
     <t>20苏交通MTN005</t>
   </si>
   <si>
-    <t>20大唐集MTN003</t>
-  </si>
-  <si>
-    <t>20金融街MTN001A</t>
-  </si>
-  <si>
-    <t>20中建二局MTN002</t>
+    <t>20赣高速MTN003</t>
+  </si>
+  <si>
+    <t>20华发实业MTN003</t>
+  </si>
+  <si>
+    <t>20豫交运MTN006</t>
+  </si>
+  <si>
+    <t>20赣铁投MTN002</t>
+  </si>
+  <si>
+    <t>20汇金MTN010A</t>
   </si>
   <si>
     <t>20中化工MTN011</t>
   </si>
   <si>
+    <t>18无锡建投MTN003</t>
+  </si>
+  <si>
     <t>20金融街MTN002</t>
   </si>
   <si>
     <t>20广州城投MTN001</t>
   </si>
   <si>
+    <t>18京汽集MTN003</t>
+  </si>
+  <si>
+    <t>18三峡GN001</t>
+  </si>
+  <si>
+    <t>20湘高速MTN007</t>
+  </si>
+  <si>
     <t>20青岛城投MTN004</t>
   </si>
   <si>
     <t>20金融街MTN003</t>
   </si>
   <si>
-    <t>20广州城投MTN003</t>
-  </si>
-  <si>
-    <t>20广州城投MTN004</t>
-  </si>
-  <si>
-    <t>18陕煤化MTN006</t>
-  </si>
-  <si>
-    <t>13赣州发展MTN001</t>
-  </si>
-  <si>
-    <t>20甬开投MTN005</t>
-  </si>
-  <si>
-    <t>20招商蛇口MTN003</t>
-  </si>
-  <si>
-    <t>19首钢MTN001</t>
-  </si>
-  <si>
-    <t>19蓉城轨交GN001</t>
-  </si>
-  <si>
-    <t>19汇金MTN004</t>
-  </si>
-  <si>
-    <t>19苏州国际MTN001</t>
-  </si>
-  <si>
-    <t>19华能集MTN001B</t>
-  </si>
-  <si>
-    <t>19陕煤化MTN001</t>
-  </si>
-  <si>
-    <t>19紫金矿业MTN003</t>
-  </si>
-  <si>
-    <t>19京国资MTN002</t>
-  </si>
-  <si>
-    <t>19中铝集MTN007</t>
-  </si>
-  <si>
-    <t>19中石油MTN005</t>
+    <t>19中油股MTN004</t>
+  </si>
+  <si>
+    <t>19苏国资MTN002</t>
+  </si>
+  <si>
+    <t>19金隅MTN001</t>
+  </si>
+  <si>
+    <t>19洪市政MTN001</t>
+  </si>
+  <si>
+    <t>19乌城投MTN002</t>
+  </si>
+  <si>
+    <t>19国新控股MTN003</t>
+  </si>
+  <si>
+    <t>19济南轨交MTN001</t>
+  </si>
+  <si>
+    <t>19陕煤化MTN003</t>
+  </si>
+  <si>
+    <t>19甘交建MTN002</t>
+  </si>
+  <si>
+    <t>19陕煤化MTN004</t>
+  </si>
+  <si>
+    <t>19兆润投资MTN001</t>
+  </si>
+  <si>
+    <t>19豫交投MTN001</t>
+  </si>
+  <si>
+    <t>19南电MTN008</t>
+  </si>
+  <si>
+    <t>19西基投MTN001</t>
   </si>
   <si>
     <t>19中石油MTN006</t>
   </si>
   <si>
-    <t>19陕煤化MTN006</t>
-  </si>
-  <si>
-    <t>20陕有色MTN001</t>
-  </si>
-  <si>
-    <t>20成交投MTN001</t>
-  </si>
-  <si>
-    <t>20闽投MTN003A</t>
+    <t>19南京国投MTN001</t>
+  </si>
+  <si>
+    <t>19大横琴MTN001</t>
+  </si>
+  <si>
+    <t>20杭金投MTN001</t>
+  </si>
+  <si>
+    <t>20汇金MTN002</t>
+  </si>
+  <si>
+    <t>20陕煤化MTN001</t>
+  </si>
+  <si>
+    <t>20青岛国信MTN001</t>
+  </si>
+  <si>
+    <t>20朝阳国资MTN001</t>
+  </si>
+  <si>
+    <t>20闽投MTN002</t>
+  </si>
+  <si>
+    <t>20紫金矿业MTN001</t>
+  </si>
+  <si>
+    <t>20青岛国信MTN002</t>
+  </si>
+  <si>
+    <t>20南京地铁GN001</t>
   </si>
   <si>
     <t>20京国资MTN001</t>
   </si>
   <si>
-    <t>20汇金MTN004</t>
+    <t>20南电MTN005</t>
+  </si>
+  <si>
+    <t>20中石油MTN003</t>
   </si>
   <si>
     <t>20中石油MTN002</t>
   </si>
   <si>
-    <t>20中石油MTN003</t>
-  </si>
-  <si>
-    <t>20西安高新MTN002</t>
-  </si>
-  <si>
-    <t>20苏国信MTN006</t>
-  </si>
-  <si>
-    <t>20西安高新MTN003</t>
-  </si>
-  <si>
-    <t>20西安高新MTN004</t>
-  </si>
-  <si>
-    <t>20通用MTN001B</t>
-  </si>
-  <si>
-    <t>20陕煤化MTN002</t>
-  </si>
-  <si>
-    <t>20闽能源MTN001</t>
-  </si>
-  <si>
-    <t>20南电MTN008</t>
-  </si>
-  <si>
-    <t>2.94</t>
+    <t>20青岛国信MTN004</t>
+  </si>
+  <si>
+    <t>20鄂联投MTN003</t>
+  </si>
+  <si>
+    <t>20青岛城投MTN003</t>
+  </si>
+  <si>
+    <t>20浙能源MTN002</t>
+  </si>
+  <si>
+    <t>20南电MTN007</t>
+  </si>
+  <si>
+    <t>20陕投集团MTN003</t>
+  </si>
+  <si>
+    <t>20北京国资MTN001</t>
+  </si>
+  <si>
+    <t>20深能源MTN002</t>
+  </si>
+  <si>
+    <t>20川铁投MTN008</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.10行权</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.38</t>
   </si>
   <si>
     <t>3.3</t>
   </si>
   <si>
-    <t>3.30行权</t>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.27行权</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>4.46</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.52</t>
   </si>
   <si>
     <t>3.99</t>
   </si>
   <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
     <t>3.48</t>
   </si>
   <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>4.10</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>4.41</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.32</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.835</t>
+  </si>
+  <si>
+    <t>3.825</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>3.85行权</t>
+  </si>
+  <si>
+    <t>3.74行权</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.81</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>4.39</t>
   </si>
   <si>
     <t>3.55</t>
   </si>
   <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.84</t>
+    <t>3.555</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>3.635</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>3.605</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.42</t>
   </si>
   <si>
     <t>3.80</t>
   </si>
   <si>
-    <t>5.15</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.245</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>3.70行权</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.94</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>3.62行权</t>
-  </si>
-  <si>
-    <t>3.52行权</t>
-  </si>
-  <si>
-    <t>3.71行权</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>3.53行权</t>
-  </si>
-  <si>
-    <t>3.65行权</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>4.52</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>4.51</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>4.46</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>4.65</t>
+    <t>4.27</t>
   </si>
   <si>
     <t>AAA</t>
-  </si>
-  <si>
-    <t>AA/AAA</t>
-  </si>
-  <si>
-    <t>AA+/AAA</t>
   </si>
   <si>
     <t>AAA/AA+</t>
@@ -1550,7 +1547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,16 +1578,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F2">
-        <v>0.8383561643835616</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1598,19 +1595,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F3">
-        <v>0.852054794520548</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1618,19 +1615,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F4">
-        <v>0.8931506849315068</v>
+        <v>0.002191780821917808</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1638,19 +1635,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F5">
-        <v>0.9315068493150684</v>
+        <v>0.8082191780821918</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1658,19 +1655,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F6">
-        <v>0.9315068493150684</v>
+        <v>0.8246575342465754</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1681,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F7">
-        <v>0.9315068493150684</v>
+        <v>0.8328767123287671</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1701,16 +1698,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F8">
-        <v>0.9342465753424658</v>
+        <v>0.8356164383561644</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1721,16 +1718,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F9">
-        <v>0.9342465753424658</v>
+        <v>0.8410958904109589</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1741,16 +1738,16 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F10">
-        <v>0.947945205479452</v>
+        <v>0.8438356164383561</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1761,16 +1758,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F11">
-        <v>0.9506849315068493</v>
+        <v>0.863013698630137</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1781,16 +1778,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F12">
-        <v>0.9726027397260274</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1798,19 +1795,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F13">
-        <v>1.02</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1818,19 +1815,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F14">
-        <v>1.04</v>
+        <v>0.8821917808219178</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1838,19 +1835,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F15">
-        <v>1.07013698630137</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1858,19 +1855,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F16">
-        <v>1.07013698630137</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1878,19 +1875,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F17">
-        <v>1.12986301369863</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1898,19 +1895,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E18" t="s">
         <v>390</v>
       </c>
       <c r="F18">
-        <v>1.14</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1918,19 +1915,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F19">
-        <v>1.14986301369863</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1938,19 +1935,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F20">
-        <v>1.14986301369863</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1958,19 +1955,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F21">
-        <v>1.16986301369863</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1978,19 +1975,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F22">
-        <v>1.16986301369863</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1998,19 +1995,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F23">
-        <v>1.16986301369863</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2018,19 +2015,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F24">
-        <v>1.2</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2038,19 +2035,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F25">
-        <v>1.2</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2058,19 +2055,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F26">
-        <v>1.2</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2078,19 +2075,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F27">
-        <v>1.2</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2098,19 +2095,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F28">
-        <v>1.2</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2118,19 +2115,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2138,16 +2135,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="E30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F30">
         <v>1.2</v>
@@ -2158,16 +2155,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -2178,16 +2175,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E32" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F32">
         <v>1.2</v>
@@ -2198,16 +2195,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E33" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F33">
         <v>1.2</v>
@@ -2218,19 +2215,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F34">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2241,16 +2238,16 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="E35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F35">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2258,19 +2255,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F36">
-        <v>1.20986301369863</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2278,19 +2275,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F37">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2298,19 +2295,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F38">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2318,19 +2315,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E39" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F39">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2338,19 +2335,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="E40" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F40">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2358,19 +2355,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F41">
-        <v>1.33013698630137</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2378,19 +2375,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F42">
-        <v>1.37013698630137</v>
+        <v>1.40986301369863</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2398,19 +2395,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F43">
-        <v>1.37013698630137</v>
+        <v>1.42986301369863</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2421,16 +2418,16 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F44">
-        <v>1.37013698630137</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2438,19 +2435,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F45">
-        <v>1.38986301369863</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2458,19 +2455,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E46" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F46">
-        <v>1.40986301369863</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2478,19 +2475,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F47">
-        <v>1.5</v>
+        <v>1.49013698630137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2498,16 +2495,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F48">
         <v>1.50986301369863</v>
@@ -2518,19 +2515,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F49">
-        <v>1.53013698630137</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2538,19 +2535,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E50" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F50">
-        <v>1.53013698630137</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2561,16 +2558,16 @@
         <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F51">
-        <v>1.53013698630137</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2581,16 +2578,16 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F52">
-        <v>1.53013698630137</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2598,19 +2595,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F53">
-        <v>1.53013698630137</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2621,13 +2618,13 @@
         <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F54">
         <v>1.55013698630137</v>
@@ -2638,16 +2635,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E55" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F55">
         <v>1.55013698630137</v>
@@ -2658,19 +2655,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F56">
-        <v>1.56</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2678,19 +2675,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F57">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2698,19 +2695,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E58" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F58">
-        <v>1.59013698630137</v>
+        <v>1.57013698630137</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2718,19 +2715,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F59">
-        <v>1.6</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2738,19 +2735,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F60">
-        <v>1.61013698630137</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2758,19 +2755,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F61">
-        <v>1.61013698630137</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2778,19 +2775,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F62">
-        <v>1.61013698630137</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2798,19 +2795,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F63">
-        <v>1.62</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2818,19 +2815,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F64">
-        <v>1.62</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2838,19 +2835,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F65">
-        <v>1.62</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2858,19 +2855,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F66">
-        <v>1.62</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2878,19 +2875,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F67">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2898,19 +2895,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="E68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F68">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2918,19 +2915,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E69" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F69">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2938,19 +2935,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="E70" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F70">
-        <v>1.78</v>
+        <v>1.66986301369863</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2961,16 +2958,16 @@
         <v>47</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E71" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F71">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2981,16 +2978,16 @@
         <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E72" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F72">
-        <v>1.79013698630137</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2998,19 +2995,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E73" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F73">
-        <v>1.84986301369863</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3018,19 +3015,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F74">
-        <v>1.84986301369863</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3038,19 +3035,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E75" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F75">
-        <v>1.84986301369863</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3058,19 +3055,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F76">
-        <v>1.87013698630137</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3078,19 +3075,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E77" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F77">
-        <v>1.87013698630137</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3098,19 +3095,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F78">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3118,19 +3115,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E79" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F79">
-        <v>1.88986301369863</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3138,19 +3135,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
         <v>331</v>
       </c>
       <c r="E80" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F80">
-        <v>1.88986301369863</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3158,19 +3155,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F81">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3178,19 +3175,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="E82" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F82">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3198,19 +3195,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="E83" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F83">
-        <v>1.92</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3218,16 +3215,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F84">
         <v>1.92986301369863</v>
@@ -3238,19 +3235,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F85">
-        <v>1.94</v>
+        <v>2.00986301369863</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3258,19 +3255,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F86">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3281,16 +3278,16 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F87">
-        <v>1.94</v>
+        <v>2.02986301369863</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3298,19 +3295,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F88">
-        <v>1.94</v>
+        <v>2.02986301369863</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3318,19 +3315,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F89">
-        <v>1.95013698630137</v>
+        <v>2.02986301369863</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3338,19 +3335,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F90">
-        <v>1.95013698630137</v>
+        <v>2.02986301369863</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3361,16 +3358,16 @@
         <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F91">
-        <v>1.95013698630137</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3378,19 +3375,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F92">
-        <v>1.95013698630137</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3398,19 +3395,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F93">
-        <v>1.96</v>
+        <v>2.16986301369863</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3418,19 +3415,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F94">
-        <v>1.96</v>
+        <v>2.16986301369863</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3438,19 +3435,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F95">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3458,19 +3455,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E96" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F96">
-        <v>2.00986301369863</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3478,19 +3475,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="E97" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F97">
-        <v>2.00986301369863</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3501,16 +3498,16 @@
         <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F98">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3518,19 +3515,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E99" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F99">
-        <v>2.02</v>
+        <v>2.19013698630137</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3538,19 +3535,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="E100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F100">
-        <v>2.1</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3561,16 +3558,16 @@
         <v>64</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
         <v>336</v>
       </c>
       <c r="E101" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F101">
-        <v>2.10986301369863</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3578,19 +3575,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E102" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F102">
-        <v>2.10986301369863</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3598,19 +3595,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E103" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F103">
-        <v>2.10986301369863</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3618,19 +3615,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="E104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F104">
-        <v>2.10986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3638,19 +3635,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E105" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F105">
-        <v>2.10986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3658,19 +3655,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D106" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F106">
-        <v>2.12</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3678,19 +3675,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F107">
-        <v>2.12</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3698,19 +3695,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="E108" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F108">
-        <v>2.12986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3718,19 +3715,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F109">
-        <v>2.12986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3738,19 +3735,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="E110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F110">
-        <v>2.12986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3758,19 +3755,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D111" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="E111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F111">
-        <v>2.12986301369863</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3778,19 +3775,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D112" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F112">
-        <v>2.15013698630137</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3798,19 +3795,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="E113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F113">
-        <v>2.15013698630137</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3818,19 +3815,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F114">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3841,16 +3838,16 @@
         <v>69</v>
       </c>
       <c r="C115" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D115" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E115" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F115">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3861,16 +3858,16 @@
         <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E116" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F116">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3878,19 +3875,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D117" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E117" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F117">
-        <v>2.18</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3898,19 +3895,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D118" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E118" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F118">
-        <v>2.18</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3918,19 +3915,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D119" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E119" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F119">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3938,19 +3935,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D120" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F120">
-        <v>2.18</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3958,19 +3955,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C121" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D121" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E121" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F121">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3978,19 +3975,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E122" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F122">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3998,19 +3995,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C123" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D123" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E123" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F123">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4018,19 +4015,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="E124" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F124">
-        <v>2.20986301369863</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4038,19 +4035,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D125" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="E125" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F125">
-        <v>2.20986301369863</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4058,19 +4055,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
       <c r="E126" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F126">
-        <v>2.20986301369863</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4078,19 +4075,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F127">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4098,19 +4095,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C128" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="E128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F128">
-        <v>2.23013698630137</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4121,16 +4118,16 @@
         <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E129" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F129">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4141,16 +4138,16 @@
         <v>74</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D130" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="E130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F130">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4161,16 +4158,16 @@
         <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D131" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="E131" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F131">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4178,19 +4175,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D132" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F132">
-        <v>2.24986301369863</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4198,19 +4195,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D133" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F133">
-        <v>2.24986301369863</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4218,19 +4215,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D134" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="E134" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F134">
-        <v>2.24986301369863</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4241,16 +4238,16 @@
         <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D135" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E135" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F135">
-        <v>2.24986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4261,16 +4258,16 @@
         <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D136" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E136" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F136">
-        <v>2.24986301369863</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4278,19 +4275,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D137" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E137" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F137">
-        <v>2.24986301369863</v>
+        <v>2.41013698630137</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4298,19 +4295,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C138" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D138" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E138" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F138">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4318,19 +4315,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D139" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E139" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F139">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4338,19 +4335,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D140" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E140" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F140">
-        <v>2.26986301369863</v>
+        <v>2.45013698630137</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4358,19 +4355,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C141" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D141" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="E141" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F141">
-        <v>2.26986301369863</v>
+        <v>2.45013698630137</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4378,19 +4375,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E142" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F142">
-        <v>2.26986301369863</v>
+        <v>2.45013698630137</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4401,16 +4398,16 @@
         <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D143" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E143" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F143">
-        <v>2.28</v>
+        <v>2.45013698630137</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4418,19 +4415,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D144" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E144" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F144">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4438,19 +4435,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E145" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F145">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4458,19 +4455,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C146" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D146" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E146" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F146">
-        <v>2.29013698630137</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4481,16 +4478,16 @@
         <v>80</v>
       </c>
       <c r="C147" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E147" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F147">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4501,16 +4498,16 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D148" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E148" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F148">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4521,16 +4518,16 @@
         <v>81</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D149" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="E149" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F149">
-        <v>2.30986301369863</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4541,16 +4538,16 @@
         <v>81</v>
       </c>
       <c r="C150" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D150" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="E150" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F150">
-        <v>2.30986301369863</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4561,16 +4558,16 @@
         <v>81</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F151">
-        <v>2.30986301369863</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4578,19 +4575,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C152" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D152" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E152" t="s">
         <v>390</v>
       </c>
       <c r="F152">
-        <v>2.30986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4598,19 +4595,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D153" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E153" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F153">
-        <v>2.30986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4624,13 +4621,13 @@
         <v>226</v>
       </c>
       <c r="D154" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E154" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F154">
-        <v>2.35013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4638,19 +4635,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D155" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E155" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F155">
-        <v>2.37013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4664,13 +4661,13 @@
         <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="E156" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F156">
-        <v>2.37013698630137</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4678,19 +4675,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D157" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E157" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F157">
-        <v>2.39013698630137</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4698,19 +4695,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D158" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F158">
-        <v>2.39013698630137</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4718,19 +4715,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D159" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E159" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F159">
-        <v>2.39013698630137</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4738,19 +4735,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D160" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E160" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F160">
-        <v>2.39013698630137</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4764,13 +4761,13 @@
         <v>228</v>
       </c>
       <c r="D161" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E161" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F161">
-        <v>2.39013698630137</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4778,19 +4775,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C162" t="s">
         <v>229</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="E162" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F162">
-        <v>2.43013698630137</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4798,19 +4795,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C163" t="s">
         <v>230</v>
       </c>
       <c r="D163" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E163" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F163">
-        <v>2.44</v>
+        <v>2.62986301369863</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4818,19 +4815,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
         <v>231</v>
       </c>
       <c r="D164" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E164" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F164">
-        <v>2.45013698630137</v>
+        <v>2.66986301369863</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4838,19 +4835,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C165" t="s">
         <v>232</v>
       </c>
       <c r="D165" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E165" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F165">
-        <v>2.54986301369863</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4861,16 +4858,16 @@
         <v>88</v>
       </c>
       <c r="C166" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D166" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E166" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F166">
-        <v>2.54986301369863</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4878,19 +4875,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
         <v>233</v>
       </c>
       <c r="D167" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E167" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F167">
-        <v>2.54986301369863</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4898,19 +4895,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C168" t="s">
         <v>233</v>
       </c>
       <c r="D168" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F168">
-        <v>2.54986301369863</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4918,19 +4915,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D169" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E169" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F169">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4938,19 +4935,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C170" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D170" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E170" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F170">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4958,19 +4955,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D171" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E171" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F171">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4978,19 +4975,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C172" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D172" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="E172" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F172">
-        <v>2.60986301369863</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4998,19 +4995,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D173" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F173">
-        <v>2.62</v>
+        <v>2.73013698630137</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5018,19 +5015,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C174" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D174" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="E174" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F174">
-        <v>2.62</v>
+        <v>2.73013698630137</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5038,19 +5035,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C175" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D175" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E175" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F175">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5058,19 +5055,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D176" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="E176" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F176">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5078,19 +5075,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C177" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D177" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="E177" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F177">
-        <v>2.62986301369863</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5098,19 +5095,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D178" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="E178" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F178">
-        <v>2.66</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5118,19 +5115,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E179" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F179">
-        <v>2.69013698630137</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5138,19 +5135,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C180" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E180" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F180">
-        <v>2.69013698630137</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5158,19 +5155,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C181" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D181" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="E181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F181">
-        <v>2.69013698630137</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5178,19 +5175,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C182" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E182" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F182">
-        <v>2.70986301369863</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5198,19 +5195,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C183" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D183" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E183" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F183">
-        <v>2.70986301369863</v>
+        <v>2.86986301369863</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5218,19 +5215,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C184" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D184" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="E184" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F184">
-        <v>2.81013698630137</v>
+        <v>2.89013698630137</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5238,19 +5235,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C185" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D185" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="E185" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F185">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5258,19 +5255,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C186" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D186" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E186" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F186">
-        <v>2.86986301369863</v>
+        <v>2.91013698630137</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5278,19 +5275,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D187" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E187" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F187">
-        <v>2.89013698630137</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5298,16 +5295,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C188" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D188" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E188" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F188">
         <v>2.92</v>
@@ -5318,19 +5315,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D189" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E189" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F189">
-        <v>2.93013698630137</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5338,19 +5335,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D190" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E190" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F190">
-        <v>2.93013698630137</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5358,19 +5355,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C191" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E191" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F191">
-        <v>2.93013698630137</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5378,19 +5375,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C192" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E192" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F192">
-        <v>2.93013698630137</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5398,16 +5395,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C193" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D193" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E193" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F193">
         <v>2.93013698630137</v>
@@ -5418,19 +5415,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C194" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D194" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="E194" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F194">
-        <v>2.93013698630137</v>
+        <v>3.13013698630137</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5438,19 +5435,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C195" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D195" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F195">
-        <v>2.93013698630137</v>
+        <v>3.15013698630137</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5458,19 +5455,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C196" t="s">
         <v>250</v>
       </c>
       <c r="D196" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F196">
-        <v>2.93013698630137</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5478,19 +5475,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C197" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D197" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F197">
-        <v>2.93013698630137</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5498,19 +5495,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C198" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D198" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F198">
-        <v>2.93013698630137</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5521,16 +5518,16 @@
         <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D199" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F199">
-        <v>2.93013698630137</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5541,16 +5538,16 @@
         <v>105</v>
       </c>
       <c r="C200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D200" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F200">
-        <v>2.93013698630137</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5558,19 +5555,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D201" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F201">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5578,19 +5575,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C202" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D202" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F202">
-        <v>2.95013698630137</v>
+        <v>3.55013698630137</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5598,19 +5595,19 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C203" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D203" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F203">
-        <v>3.04986301369863</v>
+        <v>3.58986301369863</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5618,19 +5615,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C204" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D204" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F204">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5638,19 +5635,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C205" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D205" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F205">
-        <v>3.16986301369863</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5658,19 +5655,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C206" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D206" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F206">
-        <v>3.2</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5678,19 +5675,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C207" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D207" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F207">
-        <v>3.21013698630137</v>
+        <v>3.71013698630137</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5698,19 +5695,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C208" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D208" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F208">
-        <v>3.36986301369863</v>
+        <v>3.71013698630137</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5718,19 +5715,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C209" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D209" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F209">
-        <v>3.64986301369863</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5738,16 +5735,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C210" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D210" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F210">
         <v>3.72</v>
@@ -5758,19 +5755,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F211">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5778,16 +5775,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C212" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D212" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F212">
         <v>3.78</v>
@@ -5798,19 +5795,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C213" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D213" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E213" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F213">
-        <v>3.78</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5818,16 +5815,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C214" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E214" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F214">
         <v>3.89013698630137</v>
@@ -5838,19 +5835,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C215" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D215" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E215" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F215">
-        <v>4.00986301369863</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5858,19 +5855,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C216" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D216" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E216" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F216">
-        <v>4.00986301369863</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5878,19 +5875,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C217" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D217" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E217" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F217">
-        <v>4.00986301369863</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5898,16 +5895,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C218" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D218" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E218" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F218">
         <v>4.00986301369863</v>
@@ -5918,19 +5915,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C219" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D219" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E219" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F219">
-        <v>4.03013698630137</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5938,19 +5935,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C220" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D220" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="E220" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F220">
-        <v>4.13013698630137</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5958,19 +5955,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C221" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D221" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E221" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F221">
-        <v>4.15013698630137</v>
+        <v>4.03013698630137</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5978,19 +5975,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C222" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D222" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E222" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F222">
-        <v>4.18</v>
+        <v>4.04986301369863</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5998,19 +5995,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C223" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D223" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="E223" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F223">
-        <v>4.21013698630137</v>
+        <v>4.11013698630137</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6018,19 +6015,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C224" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D224" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F224">
-        <v>4.21013698630137</v>
+        <v>4.13013698630137</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6038,19 +6035,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C225" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D225" t="s">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="E225" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F225">
-        <v>4.21013698630137</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6058,19 +6055,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C226" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D226" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="E226" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F226">
-        <v>4.21013698630137</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6078,19 +6075,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C227" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D227" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="E227" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F227">
-        <v>4.21013698630137</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6101,16 +6098,16 @@
         <v>123</v>
       </c>
       <c r="C228" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D228" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="E228" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F228">
-        <v>4.21013698630137</v>
+        <v>4.15013698630137</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6118,19 +6115,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C229" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D229" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="E229" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F229">
-        <v>4.21013698630137</v>
+        <v>4.16986301369863</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6138,16 +6135,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C230" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D230" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="E230" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F230">
         <v>4.21013698630137</v>
@@ -6158,19 +6155,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C231" t="s">
         <v>276</v>
       </c>
       <c r="D231" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="E231" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F231">
-        <v>4.22</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6178,19 +6175,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C232" t="s">
         <v>276</v>
       </c>
       <c r="D232" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="E232" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F232">
-        <v>4.22</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6201,16 +6198,16 @@
         <v>125</v>
       </c>
       <c r="C233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D233" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E233" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F233">
-        <v>4.28</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6218,19 +6215,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C234" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D234" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="E234" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F234">
-        <v>4.28986301369863</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6238,19 +6235,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C235" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D235" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="E235" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F235">
-        <v>4.28986301369863</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6258,19 +6255,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C236" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D236" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E236" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F236">
-        <v>4.34</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6278,19 +6275,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C237" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D237" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E237" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F237">
-        <v>4.34986301369863</v>
+        <v>4.21013698630137</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6298,19 +6295,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C238" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D238" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="E238" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F238">
-        <v>4.36986301369863</v>
+        <v>4.239999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6318,19 +6315,279 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
+        <v>127</v>
+      </c>
+      <c r="C239" t="s">
+        <v>279</v>
+      </c>
+      <c r="D239" t="s">
+        <v>386</v>
+      </c>
+      <c r="E239" t="s">
+        <v>390</v>
+      </c>
+      <c r="F239">
+        <v>4.260000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>128</v>
+      </c>
+      <c r="C240" t="s">
+        <v>280</v>
+      </c>
+      <c r="D240" t="s">
+        <v>385</v>
+      </c>
+      <c r="E240" t="s">
+        <v>390</v>
+      </c>
+      <c r="F240">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>129</v>
+      </c>
+      <c r="C241" t="s">
+        <v>281</v>
+      </c>
+      <c r="D241" t="s">
+        <v>378</v>
+      </c>
+      <c r="E241" t="s">
+        <v>390</v>
+      </c>
+      <c r="F241">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
         <v>130</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C242" t="s">
+        <v>282</v>
+      </c>
+      <c r="D242" t="s">
+        <v>384</v>
+      </c>
+      <c r="E242" t="s">
+        <v>390</v>
+      </c>
+      <c r="F242">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>131</v>
+      </c>
+      <c r="C243" t="s">
         <v>283</v>
       </c>
-      <c r="D239" t="s">
-        <v>363</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="D243" t="s">
+        <v>387</v>
+      </c>
+      <c r="E243" t="s">
+        <v>390</v>
+      </c>
+      <c r="F243">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>131</v>
+      </c>
+      <c r="C244" t="s">
+        <v>283</v>
+      </c>
+      <c r="D244" t="s">
+        <v>387</v>
+      </c>
+      <c r="E244" t="s">
+        <v>390</v>
+      </c>
+      <c r="F244">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>131</v>
+      </c>
+      <c r="C245" t="s">
+        <v>283</v>
+      </c>
+      <c r="D245" t="s">
+        <v>387</v>
+      </c>
+      <c r="E245" t="s">
+        <v>390</v>
+      </c>
+      <c r="F245">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>132</v>
+      </c>
+      <c r="C246" t="s">
+        <v>284</v>
+      </c>
+      <c r="D246" t="s">
+        <v>388</v>
+      </c>
+      <c r="E246" t="s">
+        <v>390</v>
+      </c>
+      <c r="F246">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" t="s">
+        <v>284</v>
+      </c>
+      <c r="D247" t="s">
+        <v>388</v>
+      </c>
+      <c r="E247" t="s">
+        <v>390</v>
+      </c>
+      <c r="F247">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>132</v>
+      </c>
+      <c r="C248" t="s">
+        <v>284</v>
+      </c>
+      <c r="D248" t="s">
+        <v>388</v>
+      </c>
+      <c r="E248" t="s">
+        <v>390</v>
+      </c>
+      <c r="F248">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>133</v>
+      </c>
+      <c r="C249" t="s">
+        <v>285</v>
+      </c>
+      <c r="D249" t="s">
+        <v>388</v>
+      </c>
+      <c r="E249" t="s">
+        <v>390</v>
+      </c>
+      <c r="F249">
+        <v>4.84986301369863</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>133</v>
+      </c>
+      <c r="C250" t="s">
+        <v>285</v>
+      </c>
+      <c r="D250" t="s">
+        <v>388</v>
+      </c>
+      <c r="E250" t="s">
+        <v>390</v>
+      </c>
+      <c r="F250">
+        <v>4.84986301369863</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" t="s">
+        <v>286</v>
+      </c>
+      <c r="D251" t="s">
         <v>389</v>
       </c>
-      <c r="F239">
-        <v>4.38986301369863</v>
+      <c r="E251" t="s">
+        <v>390</v>
+      </c>
+      <c r="F251">
+        <v>4.95013698630137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" t="s">
+        <v>286</v>
+      </c>
+      <c r="D252" t="s">
+        <v>389</v>
+      </c>
+      <c r="E252" t="s">
+        <v>390</v>
+      </c>
+      <c r="F252">
+        <v>4.95013698630137</v>
       </c>
     </row>
   </sheetData>
